--- a/Challenge3/Duplicate contacts by name and email domain.xlsx
+++ b/Challenge3/Duplicate contacts by name and email domain.xlsx
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>132699496066</v>
+        <v>132911173773</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -486,17 +486,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4772 703465</t>
+          <t xml:space="preserve"> +(44)8857 021682</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>abdul_patel644224692@nickia.com</t>
+          <t>abdul_patel461954236@nickia.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Marina  Lane, 4574</t>
+          <t>King William  Vale, 6902</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -507,7 +507,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>132689827391</v>
+        <v>132912049735</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)8857 021682</t>
+          <t xml:space="preserve"> +(353)4772 703465</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>abdul_patel461954236@nickia.com</t>
+          <t>abdul_patel644224692@nickia.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>King William  Vale, 6902</t>
+          <t>Marina  Lane, 4574</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -542,7 +542,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>132700676162</v>
+        <v>132922754097</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -556,17 +556,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2081 14037</t>
+          <t xml:space="preserve"> +(44)5612 134572</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>aiden_cooper436160852@iatim.tech</t>
+          <t>aiden_cooper525686999@iatim.tech</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cedarne  Hill, 3321</t>
+          <t>Arline    Vale, 8486</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -577,7 +577,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>132702342066</v>
+        <v>132916015694</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -591,17 +591,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5612 134572</t>
+          <t xml:space="preserve"> +(353)2081 14037</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>aiden_cooper525686999@iatim.tech</t>
+          <t>aiden_cooper436160852@iatim.tech</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Arline    Vale, 8486</t>
+          <t>Cedarne  Hill, 3321</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -612,7 +612,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>132679583306</v>
+        <v>132914263077</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>132686443645</v>
+        <v>132922687851</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>132689368354</v>
+        <v>132916015697</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -696,17 +696,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7248 032138</t>
+          <t xml:space="preserve"> +(353)8442 811337</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>aiden_stewart1839595121@infotech44.tech</t>
+          <t>aiden_stewart115509140@infotech44.tech</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Badric  Drive, 6598</t>
+          <t>Hickory Lane Rue, 4795</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -717,7 +717,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>132686339115</v>
+        <v>132923017635</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -731,17 +731,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)8442 811337</t>
+          <t xml:space="preserve"> +(44)7248 032138</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>aiden_stewart115509140@infotech44.tech</t>
+          <t>aiden_stewart1839595121@infotech44.tech</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hickory Lane Rue, 4795</t>
+          <t>Badric  Drive, 6598</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -752,7 +752,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>132702181380</v>
+        <v>132916787880</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -766,17 +766,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)1458 004228</t>
+          <t xml:space="preserve"> +(44)4124 786072</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>aiden_walsh1569593255@ubusive.com</t>
+          <t>aiden_walsh479229508@ubusive.com</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Longman   Street, 3248</t>
+          <t>Caldwell   Street, 3404</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -787,7 +787,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>132679269253</v>
+        <v>132923017650</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -801,17 +801,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4124 786072</t>
+          <t xml:space="preserve"> +(353)1458 004228</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>aiden_walsh479229508@ubusive.com</t>
+          <t>aiden_walsh1569593255@ubusive.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Caldwell   Street, 3404</t>
+          <t>Longman   Street, 3248</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -822,7 +822,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>132700294836</v>
+        <v>132910823976</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -841,12 +841,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>alan_warner22954315@fuliss.net</t>
+          <t>alan_warner22954315+101@fuliss.net</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bede  Avenue, 4773</t>
+          <t>Cedarne  Vale, 145</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -857,7 +857,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>132702073426</v>
+        <v>132911299715</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -876,12 +876,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>alan_warner22954315+101@fuliss.net</t>
+          <t>alan_warner22954315@fuliss.net</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cedarne  Vale, 145</t>
+          <t>Bede  Avenue, 4773</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -892,7 +892,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>132702342048</v>
+        <v>132911237664</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -906,17 +906,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)6051 620050</t>
+          <t xml:space="preserve"> +(353)4255 022248</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>alexander_shields491661478@gompie.com</t>
+          <t>alexander_shields1593983084@gompie.com</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Underwood  Avenue, 8384</t>
+          <t>Linden Crossroad, 8875</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -927,7 +927,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>132686885550</v>
+        <v>132923081114</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -941,17 +941,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4255 022248</t>
+          <t xml:space="preserve"> +(44)6051 620050</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>alexander_shields1593983084@gompie.com</t>
+          <t>alexander_shields491661478@gompie.com</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Linden Crossroad, 8875</t>
+          <t>Underwood  Avenue, 8384</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -962,7 +962,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>132692476964</v>
+        <v>132911040886</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -976,17 +976,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)8642 74210</t>
+          <t xml:space="preserve"> +(44)1675 865286</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>anthony_forester15332669@gompie.com</t>
+          <t>anthony_forester334684518@gompie.com</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lincoln Boulevard, 7478</t>
+          <t>Ashley Pass, 3565</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -997,7 +997,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>132686443634</v>
+        <v>132911173759</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1011,17 +1011,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1675 865286</t>
+          <t xml:space="preserve"> +(44)8642 74210</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>anthony_forester334684518@gompie.com</t>
+          <t>anthony_forester15332669@gompie.com</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ashley Pass, 3565</t>
+          <t>Lincoln Boulevard, 7478</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1032,7 +1032,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>132690218834</v>
+        <v>132924409125</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1046,17 +1046,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)6484 02731</t>
+          <t xml:space="preserve"> +(353)5671 611645</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>anthony_glass1897315466@typill.biz</t>
+          <t>anthony_glass1234332681@typill.biz</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Camdenhurst   Avenue, 9359</t>
+          <t>Blackall   Route, 5234</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1067,7 +1067,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>132683556222</v>
+        <v>132910823861</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)5671 611645</t>
+          <t xml:space="preserve"> +(353)6484 02731</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>anthony_glass1234332681@typill.biz</t>
+          <t>anthony_glass1897315466@typill.biz</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blackall   Route, 5234</t>
+          <t>Camdenhurst   Avenue, 9359</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1102,7 +1102,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>132701343289</v>
+        <v>132916015745</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>132697341990</v>
+        <v>132911105839</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>132702395236</v>
+        <v>132915666021</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2328 735730</t>
+          <t xml:space="preserve"> +(44)8102 613840</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>barney_vass1093750339@deavo.com</t>
+          <t>barney_vass1799357237@deavo.com</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Littlebury  Drive, 4233</t>
+          <t>Virginia Vale, 9915</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1207,7 +1207,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>132697660995</v>
+        <v>132915666042</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)8102 613840</t>
+          <t xml:space="preserve"> +(44)2328 735730</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>barney_vass1799357237@deavo.com</t>
+          <t>barney_vass1093750339@deavo.com</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Virginia Vale, 9915</t>
+          <t>Littlebury  Drive, 4233</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1242,7 +1242,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>132700676154</v>
+        <v>132915394667</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4487 481401</t>
+          <t xml:space="preserve"> +(44)1576 825258</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>barry_dillon254572819@gembat.biz</t>
+          <t>barry_dillon489370500@gembat.biz</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sherwood  Street, 6690</t>
+          <t>Epworth  Boulevard, 4173</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1277,7 +1277,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>132685384748</v>
+        <v>132919389535</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1291,17 +1291,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1576 825258</t>
+          <t xml:space="preserve"> +(353)4487 481401</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>barry_dillon489370500@gembat.biz</t>
+          <t>barry_dillon254572819@gembat.biz</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Epworth  Boulevard, 4173</t>
+          <t>Sherwood  Street, 6690</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>132686099593</v>
+        <v>132911703132</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1326,17 +1326,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4643 813742</t>
+          <t xml:space="preserve"> +(44)3885 542242</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>barry_mcleod1407527712@infotech44.tech</t>
+          <t>barry_mcleod1536900268@infotech44.tech</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Abbotswell  Rue, 9541</t>
+          <t>Blore  Way, 3974</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1347,7 +1347,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>132686938527</v>
+        <v>132921965946</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3885 542242</t>
+          <t xml:space="preserve"> +(44)4643 813742</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>barry_mcleod1536900268@infotech44.tech</t>
+          <t>barry_mcleod1407527712@infotech44.tech</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blore  Way, 3974</t>
+          <t>Abbotswell  Rue, 9541</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1382,7 +1382,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>132686660273</v>
+        <v>132915331473</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>132691415217</v>
+        <v>132916788044</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>132700354321</v>
+        <v>132916927259</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>132688588128</v>
+        <v>132913048620</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>132697869057</v>
+        <v>132924732749</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>bart_lyon420184376+105@acrit.org</t>
+          <t>bart_lyon420184376+103@acrit.org</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cephas  Road, 2422</t>
+          <t>Falconberg   Walk, 1055</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1557,7 +1557,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>132685671054</v>
+        <v>132898965397</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>bart_lyon420184376+103@acrit.org</t>
+          <t>bart_lyon420184376+105@acrit.org</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Falconberg   Walk, 1055</t>
+          <t>Cephas  Road, 2422</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1592,7 +1592,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>132685384848</v>
+        <v>132921011127</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1604,19 +1604,15 @@
           <t>Lyon</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>bart_lyon420184376+106@acrit.org</t>
+          <t>bart_lyon420184376+104@acrit.org</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Meadow Tunnel, 4258</t>
+          <t>Battersea   Pass, 9501</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1627,7 +1623,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>132685462024</v>
+        <v>132898965400</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1642,12 +1638,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>bart_lyon420184376+104@acrit.org</t>
+          <t>bart_lyon420184376+106@acrit.org</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Battersea   Pass, 9501</t>
+          <t>Meadow Tunnel, 4258</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1658,7 +1654,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>132690110831</v>
+        <v>132914893667</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1693,7 +1689,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>132689827405</v>
+        <v>132922193550</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1728,7 +1724,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>132686046312</v>
+        <v>132924669816</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1763,7 +1759,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>132700294757</v>
+        <v>132924409017</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1798,7 +1794,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>132689827348</v>
+        <v>132915056220</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1833,7 +1829,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>132700406660</v>
+        <v>132916787884</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1868,7 +1864,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>132700949587</v>
+        <v>132922397586</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1880,19 +1876,15 @@
           <t>Casey</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)7736 458868</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>brad_casey91675552@extex.org</t>
+          <t>brad_casey91675552+104@extex.org</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Epworth  Rue, 3508</t>
+          <t>Badric  Tunnel, 6784</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1903,7 +1895,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>132687158043</v>
+        <v>132910630489</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1938,7 +1930,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>132689423712</v>
+        <v>132924337833</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1950,15 +1942,19 @@
           <t>Casey</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)7736 458868</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>brad_casey91675552+104@extex.org</t>
+          <t>brad_casey91675552@extex.org</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Badric  Tunnel, 6784</t>
+          <t>Epworth  Rue, 3508</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1969,7 +1965,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>132702237970</v>
+        <v>132914700646</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1983,17 +1979,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)</t>
+          <t xml:space="preserve"> +(44)2737 182784</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>brad_nash201967772+105@ovock.tech</t>
+          <t>brad_nash201967772@ovock.tech</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cable    Pass, 7653</t>
+          <t>Blue Anchor  Lane, 3001</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2004,7 +2000,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>132691310458</v>
+        <v>132924732741</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2023,12 +2019,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>brad_nash201967772@ovock.tech</t>
+          <t>brad_nash201967772+104@ovock.tech</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blue Anchor  Lane, 3001</t>
+          <t>St. Johs  Tunnel, 1339</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2039,7 +2035,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>132700294837</v>
+        <v>132912771193</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2051,19 +2047,15 @@
           <t>Nash</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)2737 182784</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>brad_nash201967772+104@ovock.tech</t>
+          <t>brad_nash201967772+105@ovock.tech</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>St. Johs  Tunnel, 1339</t>
+          <t>Cable    Pass, 7653</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2074,7 +2066,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>132686840073</v>
+        <v>132910908168</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2088,17 +2080,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)6817 212370</t>
+          <t xml:space="preserve"> +(44)3155 065648</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>brad_palmer589443754@sveldo.biz</t>
+          <t>brad_palmer558788072@sveldo.biz</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Yoakley Grove, 5201</t>
+          <t>Blandford  Walk, 5083</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2109,7 +2101,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>132697342042</v>
+        <v>132924732715</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2123,17 +2115,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3155 065648</t>
+          <t xml:space="preserve"> +(44)6817 212370</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>brad_palmer558788072@sveldo.biz</t>
+          <t>brad_palmer589443754@sveldo.biz</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blandford  Walk, 5083</t>
+          <t>Yoakley Grove, 5201</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2144,7 +2136,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>132685834134</v>
+        <v>132923444151</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2158,17 +2150,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)</t>
+          <t xml:space="preserve"> +(44)7012 324125</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>brad_turner714061428+102@bretoux.com</t>
+          <t>brad_turner714061428+101@bretoux.com</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Burton  Drive, 1188</t>
+          <t>Dyott   Alley, 6300</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2179,7 +2171,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>132690218936</v>
+        <v>132923081377</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2191,19 +2183,15 @@
           <t>Turner</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)7012 324125</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>brad_turner714061428+101@bretoux.com</t>
+          <t>brad_turner714061428+102@bretoux.com</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dyott   Alley, 6300</t>
+          <t>Burton  Drive, 1188</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2214,7 +2202,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>132677260974</v>
+        <v>132916788045</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2233,12 +2221,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>bryon_james964377164+103@gompie.com</t>
+          <t>bryon_james964377164+105@gompie.com</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mariner  Way, 445</t>
+          <t>Antrobus   Lane, 5310</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2249,7 +2237,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>132678801488</v>
+        <v>132911703320</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2268,12 +2256,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>bryon_james964377164+101@gompie.com</t>
+          <t>bryon_james964377164+103@gompie.com</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Walnut Boulevard, 3808</t>
+          <t>Mariner  Way, 445</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2284,7 +2272,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>132683556371</v>
+        <v>132911498152</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2303,12 +2291,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>bryon_james964377164+105@gompie.com</t>
+          <t>bryon_james964377164+101@gompie.com</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Antrobus   Lane, 5310</t>
+          <t>Walnut Boulevard, 3808</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2319,7 +2307,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>132689016489</v>
+        <v>132924337747</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2354,7 +2342,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>132702342156</v>
+        <v>132923159567</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2389,7 +2377,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>132688588201</v>
+        <v>132910294896</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2424,7 +2412,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>132689136695</v>
+        <v>132911173812</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2455,7 +2443,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>132689071380</v>
+        <v>132914399040</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2490,7 +2478,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>132691719259</v>
+        <v>132916082193</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2525,7 +2513,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>132689313411</v>
+        <v>132912771207</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2537,15 +2525,19 @@
           <t>Windsor</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)8318 086458</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>chester_windsor1604043110+105@extex.org</t>
+          <t>chester_windsor1604043110+103@extex.org</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Fieldstone Pass, 8173</t>
+          <t>Maple Vale, 1465</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2556,7 +2548,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>132701233006</v>
+        <v>132914963046</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2591,7 +2583,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>132701288571</v>
+        <v>132898965399</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2603,19 +2595,15 @@
           <t>Windsor</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)8318 086458</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>chester_windsor1604043110+103@extex.org</t>
+          <t>chester_windsor1604043110+105@extex.org</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Maple Vale, 1465</t>
+          <t>Fieldstone Pass, 8173</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2626,7 +2614,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>132700676262</v>
+        <v>132912771204</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2661,7 +2649,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>132686789185</v>
+        <v>132911795477</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2675,17 +2663,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5738 436181</t>
+          <t xml:space="preserve"> +(353)5458 8420</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>clint_chadwick94589058@typill.biz</t>
+          <t>clint_chadwick1172355689@typill.biz</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Hickory   Pass, 6652</t>
+          <t>Fairbairn  Walk, 2082</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2696,7 +2684,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>132700406669</v>
+        <v>132914700576</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2710,17 +2698,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)5458 8420</t>
+          <t xml:space="preserve"> +(44)5738 436181</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>clint_chadwick1172355689@typill.biz</t>
+          <t>clint_chadwick94589058@typill.biz</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fairbairn  Walk, 2082</t>
+          <t>Hickory   Pass, 6652</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2731,7 +2719,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>132677260957</v>
+        <v>132911299719</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2750,12 +2738,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>clint_yard287681084+102@iatim.tech</t>
+          <t>clint_yard287681084@iatim.tech</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Coal Wharf  Pass, 6986</t>
+          <t>Chambers  Street, 97</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2766,7 +2754,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>132679269380</v>
+        <v>132924732742</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2778,19 +2766,15 @@
           <t>Yard</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)7204 236315</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>clint_yard287681084+103@iatim.tech</t>
+          <t>clint_yard287681084+105@iatim.tech</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Waldram Park  Grove, 6478</t>
+          <t>Thorndike   Way, 83</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2801,7 +2785,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>132690110857</v>
+        <v>132924274019</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2816,12 +2800,12 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>clint_yard287681084+105@iatim.tech</t>
+          <t>clint_yard287681084+104@iatim.tech</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Thorndike   Way, 83</t>
+          <t>Biggerstaff   Road, 6797</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2832,7 +2816,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>132689528915</v>
+        <v>132912049793</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2844,15 +2828,19 @@
           <t>Yard</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)7204 236315</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>clint_yard287681084+104@iatim.tech</t>
+          <t>clint_yard287681084+102@iatim.tech</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Biggerstaff   Road, 6797</t>
+          <t>Coal Wharf  Pass, 6986</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2863,7 +2851,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>132692476990</v>
+        <v>132912049788</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2894,7 +2882,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>132689827647</v>
+        <v>132916656031</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2913,12 +2901,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>clint_yard287681084@iatim.tech</t>
+          <t>clint_yard287681084+103@iatim.tech</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Chambers  Street, 97</t>
+          <t>Waldram Park  Grove, 6478</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2929,7 +2917,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>132689136708</v>
+        <v>132912871488</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2960,7 +2948,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>132700676267</v>
+        <v>132910695176</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2995,7 +2983,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>132702073423</v>
+        <v>132921966191</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3026,7 +3014,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>132686938651</v>
+        <v>132914399245</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3061,7 +3049,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>132697710379</v>
+        <v>132923647353</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3096,7 +3084,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>132689528832</v>
+        <v>132914762336</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3131,7 +3119,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>132679269269</v>
+        <v>132910908175</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3166,7 +3154,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>132686557712</v>
+        <v>132914194704</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3201,7 +3189,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>132702181455</v>
+        <v>132919827218</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3232,7 +3220,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>132702237978</v>
+        <v>132919389612</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3251,12 +3239,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>denis_boyle1570473023+103@gompie.com</t>
+          <t>denis_boyle1570473023+102@gompie.com</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Babmaes    Walk, 586</t>
+          <t>Enford   Road, 7959</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3267,7 +3255,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>132692801665</v>
+        <v>132923159613</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3279,15 +3267,19 @@
           <t>Boyle</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)6678 565525</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>denis_boyle1570473023+101@gompie.com</t>
+          <t>denis_boyle1570473023@gompie.com</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Baylis  Avenue, 5518</t>
+          <t>Clarks  Alley, 4115</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3298,7 +3290,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>132701233012</v>
+        <v>132914339233</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3310,19 +3302,15 @@
           <t>Boyle</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)6678 565525</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>denis_boyle1570473023+102@gompie.com</t>
+          <t>denis_boyle1570473023+101@gompie.com</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Enford   Road, 7959</t>
+          <t>Baylis  Avenue, 5518</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3333,7 +3321,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>132686443919</v>
+        <v>132915120462</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3352,12 +3340,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>denis_boyle1570473023@gompie.com</t>
+          <t>denis_boyle1570473023+103@gompie.com</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Clarks  Alley, 4115</t>
+          <t>Babmaes    Walk, 586</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3368,7 +3356,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>132692476848</v>
+        <v>132912871351</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3403,7 +3391,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>132697342043</v>
+        <v>132922326646</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3438,7 +3426,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>132689071266</v>
+        <v>132922618727</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3452,17 +3440,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3437 706864</t>
+          <t xml:space="preserve"> +(353)2820 224180</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>domenic_lindsay703039522@sheye.org</t>
+          <t>domenic_lindsay1075008387@sheye.org</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Clerkenwell Alley, 5024</t>
+          <t>Blackheath   Way, 7174</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3473,7 +3461,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>132686988612</v>
+        <v>132916015705</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3487,17 +3475,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2820 224180</t>
+          <t xml:space="preserve"> +(44)3437 706864</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>domenic_lindsay1075008387@sheye.org</t>
+          <t>domenic_lindsay703039522@sheye.org</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Blackheath   Way, 7174</t>
+          <t>Clerkenwell Alley, 5024</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3508,7 +3496,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>132690164334</v>
+        <v>132912623267</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3543,7 +3531,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>132686099594</v>
+        <v>132919389536</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3578,7 +3566,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>132686789265</v>
+        <v>132919827230</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3590,15 +3578,19 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)5850 843832</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>eduardo_long1683975626@bretoux.com</t>
+          <t>eduardo_long1683975626+101@bretoux.com</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Virginia Way, 9273</t>
+          <t>Bacon  Lane, 3421</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3609,7 +3601,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>132699660429</v>
+        <v>132923444150</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3621,19 +3613,15 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)5850 843832</t>
-        </is>
-      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>eduardo_long1683975626+101@bretoux.com</t>
+          <t>eduardo_long1683975626@bretoux.com</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bacon  Lane, 3421</t>
+          <t>Virginia Way, 9273</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3644,7 +3632,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>132686660226</v>
+        <v>132915394817</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3656,19 +3644,15 @@
           <t>Quinn</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>eduardo_quinn1602340966+104@famism.biz</t>
+          <t>eduardo_quinn1602340966+102@famism.biz</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Castle Route, 2193</t>
+          <t>Wake  Avenue, 6864</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3679,7 +3663,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>132691310466</v>
+        <v>132910630483</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3714,7 +3698,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>132684263341</v>
+        <v>132919827217</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3726,19 +3710,15 @@
           <t>Quinn</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>eduardo_quinn1602340966+102@famism.biz</t>
+          <t>eduardo_quinn1602340966+104@famism.biz</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Wake  Avenue, 6864</t>
+          <t>Castle Route, 2193</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3749,7 +3729,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>132689827400</v>
+        <v>132924473273</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3784,7 +3764,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>132687044395</v>
+        <v>132916655964</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3819,7 +3799,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>132700354363</v>
+        <v>132910695047</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3854,7 +3834,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>132686885653</v>
+        <v>132923722912</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3889,7 +3869,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>132691360942</v>
+        <v>132919389609</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3908,12 +3888,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>erick_holt2014841980@ovock.tech</t>
+          <t>erick_holt2014841980+104@ovock.tech</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bales  Drive, 1780</t>
+          <t>Birkbeck  Route, 2358</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3924,7 +3904,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>132686502408</v>
+        <v>132912723060</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3943,12 +3923,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>erick_holt2014841980+104@ovock.tech</t>
+          <t>erick_holt2014841980+105@ovock.tech</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Birkbeck  Route, 2358</t>
+          <t>Belgrave  Crossroad, 7401</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3959,7 +3939,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>132702293288</v>
+        <v>132924535337</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3978,12 +3958,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>erick_holt2014841980+102@ovock.tech</t>
+          <t>erick_holt2014841980@ovock.tech</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Camera  Tunnel, 3496</t>
+          <t>Bales  Drive, 1780</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3994,7 +3974,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>132679583381</v>
+        <v>132910757693</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4013,12 +3993,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>erick_holt2014841980+105@ovock.tech</t>
+          <t>erick_holt2014841980+102@ovock.tech</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Belgrave  Crossroad, 7401</t>
+          <t>Camera  Tunnel, 3496</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4029,7 +4009,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>132679583370</v>
+        <v>132910630480</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4064,7 +4044,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>132697525155</v>
+        <v>132914700648</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4099,7 +4079,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>132686046326</v>
+        <v>132924602991</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4113,17 +4093,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)6107 386888</t>
+          <t xml:space="preserve"> +(353)5488 88651</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>gabriel_crawley955885743@mafthy.com</t>
+          <t>gabriel_crawley2082839388@mafthy.com</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ely  Tunnel, 1168</t>
+          <t>Eaglet  Street, 5352</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4134,7 +4114,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>132688357125</v>
+        <v>132913894438</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4148,17 +4128,17 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)5488 88651</t>
+          <t xml:space="preserve"> +(353)6107 386888</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>gabriel_crawley2082839388@mafthy.com</t>
+          <t>gabriel_crawley955885743@mafthy.com</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Eaglet  Street, 5352</t>
+          <t>Ely  Tunnel, 1168</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4169,7 +4149,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>132689528843</v>
+        <v>132915666072</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4183,17 +4163,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2348 180247</t>
+          <t xml:space="preserve"> +(353)6721 144780</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>george_martin1059741221@qater.org</t>
+          <t>george_martin1429584957@qater.org</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Rail Lane, 5874</t>
+          <t>Cato   Crossroad, 278</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4204,7 +4184,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>132689423676</v>
+        <v>132915120419</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4218,17 +4198,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)6721 144780</t>
+          <t xml:space="preserve"> +(44)2348 180247</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>george_martin1429584957@qater.org</t>
+          <t>george_martin1059741221@qater.org</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Cato   Crossroad, 278</t>
+          <t>Rail Lane, 5874</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4239,7 +4219,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>132692092978</v>
+        <v>132914762347</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4274,7 +4254,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>132689016751</v>
+        <v>132914263138</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4305,7 +4285,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>132700354601</v>
+        <v>132916927321</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4340,7 +4320,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>132689881221</v>
+        <v>132911237747</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4375,7 +4355,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>132697925463</v>
+        <v>132914762289</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4410,7 +4390,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132697869171</v>
+        <v>132924473403</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4422,15 +4402,19 @@
           <t>Roberts</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)1655 221211</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>hank_roberts1808907109+102@twipet.com</t>
+          <t>hank_roberts1808907109+104@twipet.com</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Tiptree   Avenue, 6215</t>
+          <t>Sheringham   Route, 2097</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4441,7 +4425,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>132692476958</v>
+        <v>132914460930</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4453,19 +4437,15 @@
           <t>Roberts</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)1655 221211</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>hank_roberts1808907109+104@twipet.com</t>
+          <t>hank_roberts1808907109@twipet.com</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sheringham   Route, 2097</t>
+          <t>Sherwood  Hill, 253</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4476,7 +4456,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>132686715524</v>
+        <v>132919389610</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4490,17 +4470,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)</t>
+          <t xml:space="preserve"> +(44)1655 221211</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>hank_roberts1808907109@twipet.com</t>
+          <t>hank_roberts1808907109+103@twipet.com</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sherwood  Hill, 253</t>
+          <t>Canon Walk, 1444</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4511,7 +4491,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>132690218905</v>
+        <v>132911703322</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4523,19 +4503,15 @@
           <t>Roberts</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)1655 221211</t>
-        </is>
-      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>hank_roberts1808907109+103@twipet.com</t>
+          <t>hank_roberts1808907109+102@twipet.com</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Canon Walk, 1444</t>
+          <t>Tiptree   Avenue, 6215</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4546,7 +4522,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>132686660225</v>
+        <v>132914963036</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4581,7 +4557,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>132689881217</v>
+        <v>132923231044</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4616,7 +4592,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>132702181486</v>
+        <v>132916788036</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4628,15 +4604,19 @@
           <t>Jackson</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)7043 68057</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>harvey_jackson1123990488+105@naiker.biz</t>
+          <t>harvey_jackson1123990488+101@naiker.biz</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Bacon  Pass, 1810</t>
+          <t>Magnolia Rue, 6262</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4647,7 +4627,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>132683556361</v>
+        <v>132912723061</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4659,19 +4639,15 @@
           <t>Jackson</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)7043 68057</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>harvey_jackson1123990488+101@naiker.biz</t>
+          <t>harvey_jackson1123990488+105@naiker.biz</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Magnolia Rue, 6262</t>
+          <t>Bacon  Pass, 1810</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4682,7 +4658,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>132689827467</v>
+        <v>132922618786</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4696,17 +4672,17 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)</t>
+          <t xml:space="preserve"> +(44)6402 362731</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>harvey_pearson1222727439+102@twace.org</t>
+          <t>harvey_pearson1222727439+105@twace.org</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Anns  Lane, 8484</t>
+          <t>Cobden  Vale, 253</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4717,7 +4693,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>132701396775</v>
+        <v>132922688000</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4748,7 +4724,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>132699888428</v>
+        <v>132919827229</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4760,19 +4736,15 @@
           <t>Pearson</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)6402 362731</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>harvey_pearson1222727439+105@twace.org</t>
+          <t>harvey_pearson1222727439+102@twace.org</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Cobden  Vale, 253</t>
+          <t>Anns  Lane, 8484</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4783,7 +4755,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>132679583307</v>
+        <v>132914762292</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4818,7 +4790,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>132702342183</v>
+        <v>132915120463</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4853,7 +4825,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>132689313380</v>
+        <v>132914700615</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4888,7 +4860,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>132687157932</v>
+        <v>132911703223</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4923,7 +4895,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>132690218878</v>
+        <v>132919389592</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4958,7 +4930,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>132687443592</v>
+        <v>132916927272</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4993,7 +4965,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>132701396758</v>
+        <v>132915331401</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -5007,17 +4979,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)7357 204220</t>
+          <t xml:space="preserve"> +(44)1776 252787</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>helen_olivier2111316695@nickia.com</t>
+          <t>helen_olivier389926689@nickia.com</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Timber   Route, 1661</t>
+          <t>Cobden  Hill, 6667</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5028,7 +5000,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>132700949505</v>
+        <v>132916015729</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5042,17 +5014,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1776 252787</t>
+          <t xml:space="preserve"> +(353)7357 204220</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>helen_olivier389926689@nickia.com</t>
+          <t>helen_olivier2111316695@nickia.com</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Cobden  Hill, 6667</t>
+          <t>Timber   Route, 1661</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5063,7 +5035,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>132700949520</v>
+        <v>132912405780</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5077,17 +5049,17 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7481 148313</t>
+          <t xml:space="preserve"> +(353)5281 511637</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>henry_knight2105257826@brety.org</t>
+          <t>henry_knight1790237376@brety.org</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tiptree   Route, 1832</t>
+          <t>Gavel   Vale, 9665</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5098,7 +5070,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>132697925473</v>
+        <v>132916015717</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5112,17 +5084,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)5281 511637</t>
+          <t xml:space="preserve"> +(44)7481 148313</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>henry_knight1790237376@brety.org</t>
+          <t>henry_knight2105257826@brety.org</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Gavel   Vale, 9665</t>
+          <t>Tiptree   Route, 1832</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5133,7 +5105,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>132691719283</v>
+        <v>132924273961</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5147,17 +5119,17 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2168 64534</t>
+          <t xml:space="preserve"> +(44)4263 387018</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>jack_bloom626884725@extex.org</t>
+          <t>jack_bloom1236905882@extex.org</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Enford   Grove, 1354</t>
+          <t>Thomas  Avenue, 8084</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5168,7 +5140,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>132692092942</v>
+        <v>132924205178</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5182,17 +5154,17 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4263 387018</t>
+          <t xml:space="preserve"> +(44)2168 64534</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>jack_bloom1236905882@extex.org</t>
+          <t>jack_bloom626884725@extex.org</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Thomas  Avenue, 8084</t>
+          <t>Enford   Grove, 1354</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5203,7 +5175,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>132691360836</v>
+        <v>132911795515</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5217,17 +5189,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4444 408446</t>
+          <t xml:space="preserve"> +(44)4306 60526</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>jackeline_baldwin1235939602@iatim.tech</t>
+          <t>jackeline_baldwin2098796491@iatim.tech</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Thomas  Street, 2085</t>
+          <t>Clerkenwell Route, 5877</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5238,7 +5210,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>132691415152</v>
+        <v>132915056248</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5252,17 +5224,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4306 60526</t>
+          <t xml:space="preserve"> +(353)4444 408446</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>jackeline_baldwin2098796491@iatim.tech</t>
+          <t>jackeline_baldwin1235939602@iatim.tech</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Clerkenwell Route, 5877</t>
+          <t>Thomas  Street, 2085</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5273,7 +5245,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>132677260977</v>
+        <v>132914460936</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5287,17 +5259,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)</t>
+          <t xml:space="preserve"> +(44)1043 56031</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>jack_nobbs214667606+102@supunk.biz</t>
+          <t>jack_nobbs214667606@supunk.biz</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Thoresby   Alley, 2137</t>
+          <t>Union  Pass, 9912</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5308,7 +5280,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>132685384837</v>
+        <v>132924473407</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5322,17 +5294,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)</t>
+          <t xml:space="preserve"> +(44)1043 56031</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>jack_nobbs214667606+103@supunk.biz</t>
+          <t>jack_nobbs214667606+104@supunk.biz</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Pine Route, 3220</t>
+          <t>Sherlock   Alley, 7670</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5343,7 +5315,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>132686715557</v>
+        <v>132919827231</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5355,19 +5327,15 @@
           <t>Nobbs</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)1043 56031</t>
-        </is>
-      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>jack_nobbs214667606@supunk.biz</t>
+          <t>jack_nobbs214667606+102@supunk.biz</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Union  Pass, 9912</t>
+          <t>Thoresby   Alley, 2137</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5378,7 +5346,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>132690110892</v>
+        <v>132912623286</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5390,19 +5358,15 @@
           <t>Nobbs</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)1043 56031</t>
-        </is>
-      </c>
+      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>jack_nobbs214667606+104@supunk.biz</t>
+          <t>jack_nobbs214667606+103@supunk.biz</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sherlock   Alley, 7670</t>
+          <t>Pine Route, 3220</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5413,7 +5377,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>132688588131</v>
+        <v>132910908078</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5448,7 +5412,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>132689477376</v>
+        <v>132912723001</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5483,7 +5447,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>132700354574</v>
+        <v>132923017771</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5518,7 +5482,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>132691310413</v>
+        <v>132916927296</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5553,7 +5517,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>132697710384</v>
+        <v>132922618758</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5588,7 +5552,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>132701343332</v>
+        <v>132923081138</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5623,7 +5587,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>132692801597</v>
+        <v>132921138246</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5637,17 +5601,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)1758 243635</t>
+          <t xml:space="preserve"> +(44)7325 272615</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>janelle_jenkin1681732643@mafthy.com</t>
+          <t>janelle_jenkin477296876@mafthy.com</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Epworth  Hill, 7952</t>
+          <t>Underwood  Street, 2</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5658,7 +5622,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>132690164293</v>
+        <v>132912623235</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5672,17 +5636,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7325 272615</t>
+          <t xml:space="preserve"> +(353)1758 243635</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>janelle_jenkin477296876@mafthy.com</t>
+          <t>janelle_jenkin1681732643@mafthy.com</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Underwood  Street, 2</t>
+          <t>Epworth  Hill, 7952</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5693,7 +5657,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>132691415209</v>
+        <v>132911299693</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5728,7 +5692,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>132702237959</v>
+        <v>132914460928</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5763,7 +5727,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>132686885654</v>
+        <v>132922618756</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5777,17 +5741,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5002 382714</t>
+          <t xml:space="preserve"> +(44)1780 21016</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>javier_newman1679520828@typill.biz</t>
+          <t>javier_newman1420067301@typill.biz</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Vine  Boulevard, 4707</t>
+          <t>Blake  Tunnel, 2346</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5798,7 +5762,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>132691415127</v>
+        <v>132923444076</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5812,17 +5776,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1780 21016</t>
+          <t xml:space="preserve"> +(44)5002 382714</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>javier_newman1420067301@typill.biz</t>
+          <t>javier_newman1679520828@typill.biz</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Blake  Tunnel, 2346</t>
+          <t>Vine  Boulevard, 4707</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5833,7 +5797,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>132700406679</v>
+        <v>132914068365</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5847,17 +5811,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)6841 316422</t>
+          <t xml:space="preserve"> +(44)1785 640032</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>jayden_larsen1417914295@corti.com</t>
+          <t>jayden_larsen1958027748@corti.com</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Camden  Vale, 8360</t>
+          <t>Chatfield  Alley, 3060</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5868,7 +5832,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>132691415118</v>
+        <v>132912343467</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5882,17 +5846,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1785 640032</t>
+          <t xml:space="preserve"> +(353)6841 316422</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>jayden_larsen1958027748@corti.com</t>
+          <t>jayden_larsen1417914295@corti.com</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Chatfield  Alley, 3060</t>
+          <t>Camden  Vale, 8360</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5903,7 +5867,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>132697342026</v>
+        <v>132922193548</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5938,7 +5902,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>132702181428</v>
+        <v>132924732720</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5973,7 +5937,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>132691719344</v>
+        <v>132915056278</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5992,12 +5956,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>johnathan_campbell236114447+103@typill.biz</t>
+          <t>johnathan_campbell236114447+104@typill.biz</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Beatty  Alley, 71</t>
+          <t>Yorkshire  Avenue, 4759</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6008,7 +5972,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>132701343369</v>
+        <v>132921138295</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -6027,12 +5991,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>johnathan_campbell236114447+104@typill.biz</t>
+          <t>johnathan_campbell236114447+103@typill.biz</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Yorkshire  Avenue, 4759</t>
+          <t>Beatty  Alley, 71</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6043,7 +6007,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>132692801617</v>
+        <v>132915056261</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -6057,17 +6021,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)8243 863364</t>
+          <t xml:space="preserve"> +(44)2064 130444</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>johnathan_harrison227044592@eirey.tech</t>
+          <t>johnathan_harrison1708335181@eirey.tech</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Canal  Walk, 3707</t>
+          <t>Clyde Route, 9924</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6078,7 +6042,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>132689368495</v>
+        <v>132916015765</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6092,17 +6056,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2064 130444</t>
+          <t xml:space="preserve"> +(44)8243 863364</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>johnathan_harrison1708335181@eirey.tech</t>
+          <t>johnathan_harrison227044592@eirey.tech</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Clyde Route, 9924</t>
+          <t>Canal  Walk, 3707</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6113,7 +6077,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>132702128307</v>
+        <v>132922397533</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6127,17 +6091,17 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2308 017445</t>
+          <t xml:space="preserve"> +(44)3125 530563</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>joseph_mcleod818477666@sheye.org</t>
+          <t>joseph_mcleod1574769821@sheye.org</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Bagford   Street, 4640</t>
+          <t>Cable    Grove, 1729</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6148,7 +6112,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>132683556181</v>
+        <v>132911237721</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -6162,17 +6126,17 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3125 530563</t>
+          <t xml:space="preserve"> +(353)2308 017445</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>joseph_mcleod1574769821@sheye.org</t>
+          <t>joseph_mcleod818477666@sheye.org</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Cable    Grove, 1729</t>
+          <t>Bagford   Street, 4640</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6183,7 +6147,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>132679269395</v>
+        <v>132913109852</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -6197,17 +6161,17 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1835 405117</t>
+          <t xml:space="preserve"> +(44)4402 214264</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>josh_walsh576417246@kideod.biz</t>
+          <t>josh_walsh257456226@kideod.biz</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Emily  Drive, 8475</t>
+          <t>South Route, 6707</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6218,7 +6182,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>132700354326</v>
+        <v>132921138278</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6232,17 +6196,17 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4402 214264</t>
+          <t xml:space="preserve"> +(44)1835 405117</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>josh_walsh257456226@kideod.biz</t>
+          <t>josh_walsh576417246@kideod.biz</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>South Route, 6707</t>
+          <t>Emily  Drive, 8475</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6253,7 +6217,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>132701288560</v>
+        <v>132914460929</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -6265,11 +6229,7 @@
           <t>Bell</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
           <t>julian_bell2037709199@bauros.biz</t>
@@ -6288,7 +6248,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>132702073387</v>
+        <v>132924535335</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -6323,7 +6283,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>132698932602</v>
+        <v>132922688018</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -6335,19 +6295,15 @@
           <t>Farrow</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)6726 53357</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>julian_farrow1141858439+105@gembat.biz</t>
+          <t>julian_farrow1141858439+103@gembat.biz</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Cavaye  Rue, 6315</t>
+          <t>Cephas  Avenue, 8330</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6358,7 +6314,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>132699496226</v>
+        <v>132923444149</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -6393,7 +6349,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>132700949584</v>
+        <v>132922754165</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -6405,15 +6361,19 @@
           <t>Farrow</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)6726 53357</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>julian_farrow1141858439+103@gembat.biz</t>
+          <t>julian_farrow1141858439+105@gembat.biz</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Cephas  Avenue, 8330</t>
+          <t>Cavaye  Rue, 6315</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6424,7 +6384,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>132701750560</v>
+        <v>132913463129</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6438,17 +6398,17 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1112 077485</t>
+          <t xml:space="preserve"> +(44)7615 733281</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>julian_stone575214372@nanoff.biz</t>
+          <t>julian_stone1284997797@nanoff.biz</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Blackpool  Alley, 9560</t>
+          <t>Clissold  Drive, 7166</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6459,7 +6419,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>132700676232</v>
+        <v>132914963023</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6473,17 +6433,17 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7615 733281</t>
+          <t xml:space="preserve"> +(44)1112 077485</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>julian_stone1284997797@nanoff.biz</t>
+          <t>julian_stone575214372@nanoff.biz</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Clissold  Drive, 7166</t>
+          <t>Blackpool  Alley, 9560</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6494,7 +6454,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>132691310404</v>
+        <v>132924473347</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6508,17 +6468,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)6643 455215</t>
+          <t xml:space="preserve"> +(44)7165 356670</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>julius_holmes1964409319@deavo.com</t>
+          <t>julius_holmes75378741@deavo.com</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Adams  Boulevard, 5894</t>
+          <t>Cedarne  Boulevard, 7785</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6529,7 +6489,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>132701444692</v>
+        <v>132910294845</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6543,17 +6503,17 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7165 356670</t>
+          <t xml:space="preserve"> +(44)6643 455215</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>julius_holmes75378741@deavo.com</t>
+          <t>julius_holmes1964409319@deavo.com</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Cedarne  Boulevard, 7785</t>
+          <t>Adams  Boulevard, 5894</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6564,7 +6524,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>132687206804</v>
+        <v>132923159559</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6599,7 +6559,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>132697821291</v>
+        <v>132916082262</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6634,7 +6594,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>132702342205</v>
+        <v>132914460941</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6669,7 +6629,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>132702073379</v>
+        <v>132924205189</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6700,7 +6660,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>132687206824</v>
+        <v>132924732743</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6735,7 +6695,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>132701288600</v>
+        <v>132898965405</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6770,7 +6730,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>132691415297</v>
+        <v>132910695174</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -6782,11 +6742,7 @@
           <t>Harris</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)</t>
-        </is>
-      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
           <t>leroy_harris84853752+104@bulaffy.com</t>
@@ -6805,7 +6761,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>132702342215</v>
+        <v>132912405820</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6840,7 +6796,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>132688357163</v>
+        <v>132915056243</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6854,17 +6810,17 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5538 032723</t>
+          <t xml:space="preserve"> +(44)5025 01426</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>liam_rowlands423085056@nickia.com</t>
+          <t>liam_rowlands1242144715@nickia.com</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Beaumont  Crossroad, 9351</t>
+          <t>Woodland Avenue, 1619</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6875,7 +6831,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>132691360897</v>
+        <v>132920811906</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6889,17 +6845,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5025 01426</t>
+          <t xml:space="preserve"> +(44)5538 032723</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>liam_rowlands1242144715@nickia.com</t>
+          <t>liam_rowlands423085056@nickia.com</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Woodland Avenue, 1619</t>
+          <t>Beaumont  Crossroad, 9351</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -6910,7 +6866,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>132698932545</v>
+        <v>132910823862</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6924,17 +6880,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3667 117480</t>
+          <t xml:space="preserve"> +(44)2830 318370</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>logan_brown860259343@atink.com</t>
+          <t>logan_brown815210110@atink.com</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Apothecary   Crossroad, 4088</t>
+          <t>Maple Road, 6689</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -6945,7 +6901,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>132702293173</v>
+        <v>132922754141</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6959,17 +6915,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2830 318370</t>
+          <t xml:space="preserve"> +(44)3667 117480</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>logan_brown815210110@atink.com</t>
+          <t>logan_brown860259343@atink.com</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Maple Road, 6689</t>
+          <t>Apothecary   Crossroad, 4088</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -6980,7 +6936,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>132701232967</v>
+        <v>132916593487</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6994,17 +6950,17 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)8764 035722</t>
+          <t xml:space="preserve"> +(353)4084 330035</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>lorraine_amstead2010589656@nickia.com</t>
+          <t>lorraine_amstead1420394775@nickia.com</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Balfour    Boulevard, 946</t>
+          <t>Duthie   Tunnel, 8303</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7015,7 +6971,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>132679269287</v>
+        <v>132921138258</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -7029,17 +6985,17 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4084 330035</t>
+          <t xml:space="preserve"> +(353)8764 035722</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>lorraine_amstead1420394775@nickia.com</t>
+          <t>lorraine_amstead2010589656@nickia.com</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Duthie   Tunnel, 8303</t>
+          <t>Balfour    Boulevard, 946</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7050,7 +7006,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>132701343358</v>
+        <v>132914963038</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -7085,7 +7041,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>132686789184</v>
+        <v>132916015728</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -7120,7 +7076,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>132686609818</v>
+        <v>132924473271</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -7155,7 +7111,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>132700354362</v>
+        <v>132915120425</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -7190,7 +7146,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>132689827471</v>
+        <v>132915056276</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -7202,15 +7158,19 @@
           <t>Redfern</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)3073 480524</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>mason_redfern1913258047+103@extex.org</t>
+          <t>mason_redfern1913258047+101@extex.org</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Carol   Grove, 9305</t>
+          <t>Catherine  Pass, 1830</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7221,7 +7181,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>132686557606</v>
+        <v>132914068489</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -7233,19 +7193,15 @@
           <t>Redfern</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)3073 480524</t>
-        </is>
-      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>mason_redfern1913258047+101@extex.org</t>
+          <t>mason_redfern1913258047+103@extex.org</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Catherine  Pass, 1830</t>
+          <t>Carol   Grove, 9305</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7256,7 +7212,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>132687443616</v>
+        <v>132916788039</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -7271,12 +7227,12 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>mason_redfern1913258047@extex.org</t>
+          <t>mason_redfern1913258047+102@extex.org</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Camdenhurst   Street, 2762</t>
+          <t>Wakley   Boulevard, 5558</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7287,7 +7243,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>132686099742</v>
+        <v>132914194702</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -7302,12 +7258,12 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>mason_redfern1913258047+102@extex.org</t>
+          <t>mason_redfern1913258047@extex.org</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Wakley   Boulevard, 5558</t>
+          <t>Camdenhurst   Street, 2762</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7318,7 +7274,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>132685725998</v>
+        <v>132915394820</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -7353,7 +7309,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>132685834091</v>
+        <v>132921138279</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -7388,7 +7344,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>132690110866</v>
+        <v>132914263144</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -7407,12 +7363,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>michael_veale472491137+102@gembat.biz</t>
+          <t>michael_veale472491137+103@gembat.biz</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Berriman  Lane, 9321</t>
+          <t>Bellenden   Drive, 6655</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7423,7 +7379,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>132686840357</v>
+        <v>132924669846</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -7458,7 +7414,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>132697342086</v>
+        <v>132924337835</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -7477,12 +7433,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>michael_veale472491137+103@gembat.biz</t>
+          <t>michael_veale472491137+102@gembat.biz</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Bellenden   Drive, 6655</t>
+          <t>Berriman  Lane, 9321</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7493,7 +7449,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>132702181480</v>
+        <v>132922688009</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -7512,12 +7468,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>nate_roth902590743+106@liret.org</t>
+          <t>nate_roth902590743@liret.org</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Thomas  Route, 9954</t>
+          <t>Monroe Road, 4532</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7528,7 +7484,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>132691719332</v>
+        <v>132923231113</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7540,11 +7496,7 @@
           <t>Roth</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)</t>
-        </is>
-      </c>
+      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
           <t>nate_roth902590743+101@liret.org</t>
@@ -7563,7 +7515,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>132691360918</v>
+        <v>132911795532</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -7582,12 +7534,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>nate_roth902590743@liret.org</t>
+          <t>nate_roth902590743+102@liret.org</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Monroe Road, 4532</t>
+          <t>Maple Grove, 1863</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7598,7 +7550,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>132683556276</v>
+        <v>132924535333</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -7617,12 +7569,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>nate_roth902590743+102@liret.org</t>
+          <t>nate_roth902590743+106@liret.org</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Maple Grove, 1863</t>
+          <t>Thomas  Route, 9954</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7633,7 +7585,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>132689071402</v>
+        <v>132914194705</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7652,12 +7604,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>noah_tanner17953585+102@acrit.org</t>
+          <t>noah_tanner17953585+103@acrit.org</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Baylis  Alley, 9953</t>
+          <t>Walnut Vale, 1387</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7668,7 +7620,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>132702237984</v>
+        <v>132924535332</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7687,12 +7639,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>noah_tanner17953585+103@acrit.org</t>
+          <t>noah_tanner17953585+101@acrit.org</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Walnut Vale, 1387</t>
+          <t>Clere  Avenue, 5521</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7703,7 +7655,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>132689016758</v>
+        <v>132914154503</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7715,15 +7667,19 @@
           <t>Tanner</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)3156 686087</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>noah_tanner17953585@acrit.org</t>
+          <t>noah_tanner17953585+102@acrit.org</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>King William  Hill, 3515</t>
+          <t>Baylis  Alley, 9953</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7734,7 +7690,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>132699888408</v>
+        <v>132911041035</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7746,19 +7702,15 @@
           <t>Tanner</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)3156 686087</t>
-        </is>
-      </c>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>noah_tanner17953585+101@acrit.org</t>
+          <t>noah_tanner17953585@acrit.org</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Clere  Avenue, 5521</t>
+          <t>King William  Hill, 3515</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7769,7 +7721,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>132689423718</v>
+        <v>132910908205</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7804,7 +7756,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>132686502419</v>
+        <v>132921073563</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7835,7 +7787,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>132699888397</v>
+        <v>132921138252</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7849,17 +7801,17 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2080 633128</t>
+          <t xml:space="preserve"> +(44)5710 41261</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>owen_pearce970437319@deavo.com</t>
+          <t>owen_pearce1384504456@deavo.com</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Gatonby   Grove, 7775</t>
+          <t>Thrale   Route, 4026</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -7870,7 +7822,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>132679269389</v>
+        <v>132921011118</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7884,17 +7836,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5710 41261</t>
+          <t xml:space="preserve"> +(353)2080 633128</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>owen_pearce1384504456@deavo.com</t>
+          <t>owen_pearce970437319@deavo.com</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Thrale   Route, 4026</t>
+          <t>Gatonby   Grove, 7775</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -7905,7 +7857,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>132686840075</v>
+        <v>132922618789</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7924,12 +7876,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>owen_wigley177952980+102@extex.org</t>
+          <t>owen_wigley177952980+101@extex.org</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Kingly  Way, 4888</t>
+          <t>Blackheath  Vale, 8448</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -7940,7 +7892,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>132699496218</v>
+        <v>132924409170</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7959,12 +7911,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>owen_wigley177952980+101@extex.org</t>
+          <t>owen_wigley177952980@extex.org</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Blackheath  Vale, 8448</t>
+          <t>Elystan  Drive, 8938</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -7975,7 +7927,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>132697661062</v>
+        <v>132912049799</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7994,12 +7946,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>owen_wigley177952980@extex.org</t>
+          <t>owen_wigley177952980+102@extex.org</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Elystan  Drive, 8938</t>
+          <t>Kingly  Way, 4888</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8010,7 +7962,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>132686938662</v>
+        <v>132922817308</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -8041,7 +7993,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>132701750689</v>
+        <v>132922193665</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -8076,7 +8028,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>132697342028</v>
+        <v>132911703210</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -8111,7 +8063,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>132702293312</v>
+        <v>132922397542</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -8125,17 +8077,17 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7277 11332</t>
+          <t xml:space="preserve"> +(44)5335 776432</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>percy_amstead49303678@ovock.tech</t>
+          <t>percy_amstead112559816@ovock.tech</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Dunton  Walk, 6906</t>
+          <t>College  Rue, 8908</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8146,7 +8098,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>132687206816</v>
+        <v>132921966177</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -8160,17 +8112,17 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5335 776432</t>
+          <t xml:space="preserve"> +(44)7277 11332</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>percy_amstead112559816@ovock.tech</t>
+          <t>percy_amstead49303678@ovock.tech</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>College  Rue, 8908</t>
+          <t>Dunton  Walk, 6906</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8181,7 +8133,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>132686557708</v>
+        <v>132922193593</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -8216,7 +8168,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>132689016706</v>
+        <v>132922817283</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -8251,7 +8203,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>132686988650</v>
+        <v>132910757671</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -8265,17 +8217,17 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3011 332752</t>
+          <t xml:space="preserve"> +(353)5322 774855</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>phillip_clarke344150521@twace.org</t>
+          <t>phillip_clarke341268053@twace.org</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Cardinal Pass, 6031</t>
+          <t>Marischal  Route, 2589</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8286,7 +8238,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>132686099720</v>
+        <v>132914339209</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -8300,17 +8252,17 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)5322 774855</t>
+          <t xml:space="preserve"> +(44)3011 332752</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>phillip_clarke341268053@twace.org</t>
+          <t>phillip_clarke344150521@twace.org</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Marischal  Route, 2589</t>
+          <t>Cardinal Pass, 6031</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8321,7 +8273,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>132689423683</v>
+        <v>132913894432</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -8340,12 +8292,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>phillip_cooper2140654386+103@jiman.org</t>
+          <t>phillip_cooper2140654386+104@jiman.org</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Chart   Grove, 4115</t>
+          <t>Argyle  Lane, 9868</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8356,7 +8308,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>132686988677</v>
+        <v>132921011202</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -8368,19 +8320,15 @@
           <t>Cooper</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)6020 264200</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>phillip_cooper2140654386+104@jiman.org</t>
+          <t>phillip_cooper2140654386+101@jiman.org</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Argyle  Lane, 9868</t>
+          <t>Chart   Pass, 2430</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8391,7 +8339,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>132690218934</v>
+        <v>132911703318</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -8405,17 +8353,17 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)</t>
+          <t xml:space="preserve"> +(44)6020 264200</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>phillip_cooper2140654386+101@jiman.org</t>
+          <t>phillip_cooper2140654386+103@jiman.org</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Chart   Pass, 2430</t>
+          <t>Chart   Grove, 4115</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8426,7 +8374,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>132686660257</v>
+        <v>132922397575</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -8438,19 +8386,15 @@
           <t>Preston</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)4308 156553</t>
-        </is>
-      </c>
+      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>ramon_preston2096761104+103@sheye.org</t>
+          <t>ramon_preston2096761104+102@sheye.org</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Dyott   Vale, 9007</t>
+          <t>Canon Way, 9950</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8461,7 +8405,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>132697661042</v>
+        <v>132914893703</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -8473,15 +8417,19 @@
           <t>Preston</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)4308 156553</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>ramon_preston2096761104+102@sheye.org</t>
+          <t>ramon_preston2096761104+103@sheye.org</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Canon Way, 9950</t>
+          <t>Dyott   Vale, 9007</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8492,7 +8440,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>132686789234</v>
+        <v>132912771205</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -8527,7 +8475,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>132686046296</v>
+        <v>132924337799</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -8541,17 +8489,17 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3770 460268</t>
+          <t xml:space="preserve"> +(44)1512 103848</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>ramon_west1007161184@naiker.biz</t>
+          <t>ramon_west2034201318@naiker.biz</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Camden  Tunnel, 4925</t>
+          <t>Canal  Hill, 7226</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8562,7 +8510,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>132679269387</v>
+        <v>132922687921</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -8576,17 +8524,17 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1512 103848</t>
+          <t xml:space="preserve"> +(44)3770 460268</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>ramon_west2034201318@naiker.biz</t>
+          <t>ramon_west1007161184@naiker.biz</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Canal  Hill, 7226</t>
+          <t>Camden  Tunnel, 4925</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8597,7 +8545,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>132701444678</v>
+        <v>132911040931</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -8611,17 +8559,17 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)7301 551822</t>
+          <t xml:space="preserve"> +(353)2655 561887</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>rocco_hudson1498705199@kideod.biz</t>
+          <t>rocco_hudson926661291@kideod.biz</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Monroe Route, 1319</t>
+          <t>Thurloe   Boulevard, 7900</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8632,7 +8580,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>132686443911</v>
+        <v>132923723026</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -8646,17 +8594,17 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2655 561887</t>
+          <t xml:space="preserve"> +(353)7301 551822</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>rocco_hudson926661291@kideod.biz</t>
+          <t>rocco_hudson1498705199@kideod.biz</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Thurloe   Boulevard, 7900</t>
+          <t>Monroe Route, 1319</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8667,7 +8615,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>132691310455</v>
+        <v>132914893711</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -8679,15 +8627,19 @@
           <t>Martin</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)6084 412351</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>rocco_martin507925367+101@eirey.tech</t>
+          <t>rocco_martin507925367@eirey.tech</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Clerkenwell Street, 1076</t>
+          <t>Wager   Street, 6624</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8698,7 +8650,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>132702128401</v>
+        <v>132911237743</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -8710,19 +8662,15 @@
           <t>Martin</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)6084 412351</t>
-        </is>
-      </c>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>rocco_martin507925367+102@eirey.tech</t>
+          <t>rocco_martin507925367+101@eirey.tech</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Buttonwood Rue, 7364</t>
+          <t>Clerkenwell Street, 1076</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8733,7 +8681,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>132686715552</v>
+        <v>132912723045</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -8752,12 +8700,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>rocco_martin507925367@eirey.tech</t>
+          <t>rocco_martin507925367+102@eirey.tech</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Wager   Street, 6624</t>
+          <t>Buttonwood Rue, 7364</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -8768,7 +8716,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>132689071394</v>
+        <v>132920811942</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -8787,12 +8735,12 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>rocco_palmer160419466+105@infotech44.tech</t>
+          <t>rocco_palmer160419466@infotech44.tech</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Buttonwood Walk, 9489</t>
+          <t>Bagford   Hill, 4868</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -8803,7 +8751,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>132701288599</v>
+        <v>132916593529</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -8822,12 +8770,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>rocco_palmer160419466@infotech44.tech</t>
+          <t>rocco_palmer160419466+105@infotech44.tech</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Bagford   Hill, 4868</t>
+          <t>Buttonwood Walk, 9489</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -8838,7 +8786,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>132692476998</v>
+        <v>132916788041</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -8873,7 +8821,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>132700354366</v>
+        <v>132916656024</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -8904,7 +8852,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>132687206929</v>
+        <v>132924732750</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -8939,7 +8887,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>132685461847</v>
+        <v>132923444124</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -8953,17 +8901,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2037 337365</t>
+          <t xml:space="preserve"> +(44)1471 723675</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>ron_coll328863662@sveldo.biz</t>
+          <t>ron_coll382126604@sveldo.biz</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Camera  Grove, 9725</t>
+          <t>Angela   Rue, 2401</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -8974,7 +8922,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>132687206795</v>
+        <v>132923444131</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -8988,17 +8936,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1471 723675</t>
+          <t xml:space="preserve"> +(44)2037 337365</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>ron_coll382126604@sveldo.biz</t>
+          <t>ron_coll328863662@sveldo.biz</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Angela   Rue, 2401</t>
+          <t>Camera  Grove, 9725</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9009,7 +8957,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>132700294928</v>
+        <v>132914154502</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -9023,17 +8971,17 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2218 6780</t>
+          <t xml:space="preserve"> +(44)3775 075447</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>ron_williams758216415@irrepsy.com</t>
+          <t>ron_williams702699856@irrepsy.com</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Blackpool  Boulevard, 4079</t>
+          <t>Armory  Grove, 4156</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9044,7 +8992,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>132686339219</v>
+        <v>132916015775</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -9058,17 +9006,17 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3775 075447</t>
+          <t xml:space="preserve"> +(353)2218 6780</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>ron_williams702699856@irrepsy.com</t>
+          <t>ron_williams758216415@irrepsy.com</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Armory  Grove, 4156</t>
+          <t>Blackpool  Boulevard, 4079</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9079,7 +9027,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>132691360898</v>
+        <v>132924409158</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -9114,7 +9062,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>132701343354</v>
+        <v>132916927307</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -9149,7 +9097,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>132683556277</v>
+        <v>132910294886</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -9164,12 +9112,12 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>ryan_upsdell175534425+101@vetan.org</t>
+          <t>ryan_upsdell175534425+104@vetan.org</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Hampden  Vale, 7627</t>
+          <t>Fawn Grove, 8487</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9180,7 +9128,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>132697342062</v>
+        <v>132922326681</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -9192,19 +9140,15 @@
           <t>Upsdell</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)3084 734307</t>
-        </is>
-      </c>
+      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>ryan_upsdell175534425@vetan.org</t>
+          <t>ryan_upsdell175534425+101@vetan.org</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Bury  Rue, 5932</t>
+          <t>Hampden  Vale, 7627</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -9215,7 +9159,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>132699660397</v>
+        <v>132914194701</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -9229,17 +9173,17 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)</t>
+          <t xml:space="preserve"> +(44)3084 734307</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>ryan_upsdell175534425+104@vetan.org</t>
+          <t>ryan_upsdell175534425@vetan.org</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Fawn Grove, 8487</t>
+          <t>Bury  Rue, 5932</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9250,7 +9194,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>132697525152</v>
+        <v>132919827222</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -9269,12 +9213,12 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ryan_welsch107397896+103@famism.biz</t>
+          <t>ryan_welsch107397896+104@famism.biz</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Thorndike   Walk, 1902</t>
+          <t>Collingwood  Road, 454</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -9285,7 +9229,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>132689368635</v>
+        <v>132912623361</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -9304,12 +9248,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>ryan_welsch107397896+104@famism.biz</t>
+          <t>ryan_welsch107397896+103@famism.biz</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Collingwood  Road, 454</t>
+          <t>Thorndike   Walk, 1902</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9320,7 +9264,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>132689477405</v>
+        <v>132911041031</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -9334,17 +9278,17 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)</t>
+          <t xml:space="preserve"> +(44)5247 484202</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>sebastian_hope1518365261+101@hourpy.biz</t>
+          <t>sebastian_hope1518365261+104@hourpy.biz</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Cheney  Street, 9579</t>
+          <t>Camdenhurst   Hill, 7438</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9355,7 +9299,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>132689528851</v>
+        <v>132912871477</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -9367,19 +9311,15 @@
           <t>Hope</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)5247 484202</t>
-        </is>
-      </c>
+      <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>sebastian_hope1518365261+104@hourpy.biz</t>
+          <t>sebastian_hope1518365261+103@hourpy.biz</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Camdenhurst   Hill, 7438</t>
+          <t>Ayres   Rue, 5830</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9390,7 +9330,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>132687443614</v>
+        <v>132916788037</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -9402,19 +9342,15 @@
           <t>Hope</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)</t>
-        </is>
-      </c>
+      <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>sebastian_hope1518365261+103@hourpy.biz</t>
+          <t>sebastian_hope1518365261+101@hourpy.biz</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Ayres   Rue, 5830</t>
+          <t>Cheney  Street, 9579</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9425,7 +9361,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>132689071368</v>
+        <v>132912049768</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -9439,17 +9375,17 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)8188 876802</t>
+          <t xml:space="preserve"> +(44)4661 404051</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>sebastian_murphy1243079762@womeona.net</t>
+          <t>sebastian_murphy1265006581@womeona.net</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Clavell   Vale, 368</t>
+          <t>Clyde Vale, 2333</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9460,7 +9396,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>132691310440</v>
+        <v>132912405811</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -9474,17 +9410,17 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4661 404051</t>
+          <t xml:space="preserve"> +(44)8188 876802</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>sebastian_murphy1265006581@womeona.net</t>
+          <t>sebastian_murphy1243079762@womeona.net</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Clyde Vale, 2333</t>
+          <t>Clavell   Vale, 368</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -9495,7 +9431,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>132691310432</v>
+        <v>132914154500</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -9514,12 +9450,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>sebastian_parker1458479109@joiniaa.com</t>
+          <t>sebastian_parker1458479109+104@joiniaa.com</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Bales  Grove, 8324</t>
+          <t>Dutton   Boulevard, 4639</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9530,7 +9466,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>132687206807</v>
+        <v>132916656022</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -9565,7 +9501,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>132688588168</v>
+        <v>132911795531</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -9584,12 +9520,12 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>sebastian_parker1458479109+104@joiniaa.com</t>
+          <t>sebastian_parker1458479109@joiniaa.com</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Dutton   Boulevard, 4639</t>
+          <t>Bales  Grove, 8324</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -9600,7 +9536,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>132697821271</v>
+        <v>132923647386</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -9614,17 +9550,17 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)6161 776432</t>
+          <t xml:space="preserve"> +(353)5324 038485</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>tom_harvey658471177@elnee.tech</t>
+          <t>tom_harvey884161528@elnee.tech</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Cephas  Crossroad, 4318</t>
+          <t>Norfolk  Way, 3805</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9635,7 +9571,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>132698932570</v>
+        <v>132924732732</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -9649,17 +9585,17 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)5324 038485</t>
+          <t xml:space="preserve"> +(44)6161 776432</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>tom_harvey884161528@elnee.tech</t>
+          <t>tom_harvey658471177@elnee.tech</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Norfolk  Way, 3805</t>
+          <t>Cephas  Crossroad, 4318</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9670,7 +9606,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>132689016714</v>
+        <v>132910294881</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -9705,7 +9641,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>132697821279</v>
+        <v>132923723030</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -9740,7 +9676,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>132700949590</v>
+        <v>132910823967</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -9775,7 +9711,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>132684263330</v>
+        <v>132924273993</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -9810,7 +9746,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>132697821267</v>
+        <v>132915056244</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -9845,7 +9781,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>132699888424</v>
+        <v>132910695070</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>

--- a/Challenge3/Duplicate contacts by name and email domain.xlsx
+++ b/Challenge3/Duplicate contacts by name and email domain.xlsx
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>132911173773</v>
+        <v>134630655762</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -486,17 +486,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)8857 021682</t>
+          <t xml:space="preserve"> +(353)4772 703465</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>abdul_patel461954236@nickia.com</t>
+          <t>abdul_patel644224692@nickia.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>King William  Vale, 6902</t>
+          <t>Marina  Lane, 4574</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -507,7 +507,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>132912049735</v>
+        <v>134626631508</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4772 703465</t>
+          <t xml:space="preserve"> +(44)8857 021682</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>abdul_patel644224692@nickia.com</t>
+          <t>abdul_patel461954236@nickia.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Marina  Lane, 4574</t>
+          <t>King William  Vale, 6902</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -542,7 +542,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>132922754097</v>
+        <v>134626631440</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -556,17 +556,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5612 134572</t>
+          <t xml:space="preserve"> +(353)2081 14037</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>aiden_cooper525686999@iatim.tech</t>
+          <t>aiden_cooper436160852@iatim.tech</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Arline    Vale, 8486</t>
+          <t>Cedarne  Hill, 3321</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -577,7 +577,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>132916015694</v>
+        <v>134659754377</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -591,17 +591,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2081 14037</t>
+          <t xml:space="preserve"> +(44)5612 134572</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>aiden_cooper436160852@iatim.tech</t>
+          <t>aiden_cooper525686999@iatim.tech</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cedarne  Hill, 3321</t>
+          <t>Arline    Vale, 8486</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -612,7 +612,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>132914263077</v>
+        <v>134632722558</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,17 +626,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)1680 56222</t>
+          <t xml:space="preserve"> +(353)3405 751474</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>aiden_moore1909654254@irrepsy.com</t>
+          <t>aiden_moore1200168614@irrepsy.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bermondsey    Tunnel, 8756</t>
+          <t>Chelsea Manor  Route, 9715</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -647,7 +647,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>132922687851</v>
+        <v>134627981908</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -661,17 +661,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)3405 751474</t>
+          <t xml:space="preserve"> +(353)1680 56222</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>aiden_moore1200168614@irrepsy.com</t>
+          <t>aiden_moore1909654254@irrepsy.com</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Chelsea Manor  Route, 9715</t>
+          <t>Bermondsey    Tunnel, 8756</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -682,7 +682,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>132916015697</v>
+        <v>134631878225</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>132923017635</v>
+        <v>134654869382</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>132916787880</v>
+        <v>134660357441</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -766,17 +766,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4124 786072</t>
+          <t xml:space="preserve"> +(353)1458 004228</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>aiden_walsh479229508@ubusive.com</t>
+          <t>aiden_walsh1569593255@ubusive.com</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Caldwell   Street, 3404</t>
+          <t>Longman   Street, 3248</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -787,7 +787,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>132923017650</v>
+        <v>134658994517</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -801,17 +801,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)1458 004228</t>
+          <t xml:space="preserve"> +(44)4124 786072</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>aiden_walsh1569593255@ubusive.com</t>
+          <t>aiden_walsh479229508@ubusive.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Longman   Street, 3248</t>
+          <t>Caldwell   Street, 3404</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -822,7 +822,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>132910823976</v>
+        <v>134626631520</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>132911299715</v>
+        <v>134630809652</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>132911237664</v>
+        <v>134633475672</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -906,17 +906,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4255 022248</t>
+          <t xml:space="preserve"> +(44)6051 620050</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>alexander_shields1593983084@gompie.com</t>
+          <t>alexander_shields491661478@gompie.com</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Linden Crossroad, 8875</t>
+          <t>Underwood  Avenue, 8384</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -927,7 +927,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>132923081114</v>
+        <v>134633894155</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -941,17 +941,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)6051 620050</t>
+          <t xml:space="preserve"> +(353)4255 022248</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>alexander_shields491661478@gompie.com</t>
+          <t>alexander_shields1593983084@gompie.com</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Underwood  Avenue, 8384</t>
+          <t>Linden Crossroad, 8875</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -962,7 +962,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>132911040886</v>
+        <v>134659754347</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>132911173759</v>
+        <v>134626787630</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>132924409125</v>
+        <v>134658430876</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>132910823861</v>
+        <v>134633510403</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>132916015745</v>
+        <v>134660466354</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)7367 781222</t>
+          <t xml:space="preserve"> +(44)5307 440555</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>barney_russell244796452@typill.biz</t>
+          <t>barney_russell1168266622@typill.biz</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Chesterfield  Tunnel, 6774</t>
+          <t>Balfe   Road, 467</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>132911105839</v>
+        <v>134660601776</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1151,17 +1151,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5307 440555</t>
+          <t xml:space="preserve"> +(353)7367 781222</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>barney_russell1168266622@typill.biz</t>
+          <t>barney_russell244796452@typill.biz</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Balfe   Road, 467</t>
+          <t>Chesterfield  Tunnel, 6774</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1172,7 +1172,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>132915666021</v>
+        <v>134628036536</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>132915666042</v>
+        <v>134659754417</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>132915394667</v>
+        <v>134630655777</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1576 825258</t>
+          <t xml:space="preserve"> +(353)4487 481401</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>barry_dillon489370500@gembat.biz</t>
+          <t>barry_dillon254572819@gembat.biz</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Epworth  Boulevard, 4173</t>
+          <t>Sherwood  Street, 6690</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1277,7 +1277,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>132919389535</v>
+        <v>134629862307</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1291,17 +1291,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4487 481401</t>
+          <t xml:space="preserve"> +(44)1576 825258</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>barry_dillon254572819@gembat.biz</t>
+          <t>barry_dillon489370500@gembat.biz</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sherwood  Street, 6690</t>
+          <t>Epworth  Boulevard, 4173</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>132911703132</v>
+        <v>134632913197</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>132921965946</v>
+        <v>134627981901</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>132915331473</v>
+        <v>134632913257</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>barry_ryan1600445419+103@twace.org</t>
+          <t>barry_ryan1600445419+102@twace.org</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Boleyn  Drive, 2714</t>
+          <t>Chelsea Manor  Street, 3160</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1417,7 +1417,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>132916788044</v>
+        <v>134631191666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>barry_ryan1600445419+102@twace.org</t>
+          <t>barry_ryan1600445419+103@twace.org</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Chelsea Manor  Street, 3160</t>
+          <t>Boleyn  Drive, 2714</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1452,7 +1452,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>132916927259</v>
+        <v>134658994524</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1466,17 +1466,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)6775 186058</t>
+          <t xml:space="preserve"> +(44)8177 05146</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>bart_higgs1341155988@twipet.com</t>
+          <t>bart_higgs1742065726@twipet.com</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Central  Vale, 5634</t>
+          <t>Linda   Hill, 1635</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1487,7 +1487,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>132913048620</v>
+        <v>134630655787</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1501,17 +1501,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)8177 05146</t>
+          <t xml:space="preserve"> +(353)6775 186058</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>bart_higgs1742065726@twipet.com</t>
+          <t>bart_higgs1341155988@twipet.com</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Linda   Hill, 1635</t>
+          <t>Central  Vale, 5634</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1522,7 +1522,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>132924732749</v>
+        <v>134659754513</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1534,19 +1534,15 @@
           <t>Lyon</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)8027 580538</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>bart_lyon420184376+103@acrit.org</t>
+          <t>bart_lyon420184376+106@acrit.org</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Falconberg   Walk, 1055</t>
+          <t>Meadow Tunnel, 4258</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1557,7 +1553,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>132898965397</v>
+        <v>134630045247</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1576,12 +1572,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>bart_lyon420184376+105@acrit.org</t>
+          <t>bart_lyon420184376+103@acrit.org</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cephas  Road, 2422</t>
+          <t>Falconberg   Walk, 1055</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1592,7 +1588,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>132921011127</v>
+        <v>134654869516</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1604,15 +1600,19 @@
           <t>Lyon</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)8027 580538</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>bart_lyon420184376+104@acrit.org</t>
+          <t>bart_lyon420184376+105@acrit.org</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Battersea   Pass, 9501</t>
+          <t>Cephas  Road, 2422</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1623,7 +1623,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>132898965400</v>
+        <v>134657273269</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1638,12 +1638,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>bart_lyon420184376+106@acrit.org</t>
+          <t>bart_lyon420184376+104@acrit.org</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Meadow Tunnel, 4258</t>
+          <t>Battersea   Pass, 9501</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1654,7 +1654,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>132914893667</v>
+        <v>134660601778</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1668,17 +1668,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1414 640464</t>
+          <t xml:space="preserve"> +(44)7838 485266</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>bob_thorpe1732592321@gembat.biz</t>
+          <t>bob_thorpe235387411@gembat.biz</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>King Boulevard, 8524</t>
+          <t>Shepherds  Rue, 2632</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1689,7 +1689,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>132922193550</v>
+        <v>134626305959</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1703,17 +1703,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7838 485266</t>
+          <t xml:space="preserve"> +(44)1414 640464</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>bob_thorpe235387411@gembat.biz</t>
+          <t>bob_thorpe1732592321@gembat.biz</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Shepherds  Rue, 2632</t>
+          <t>King Boulevard, 8524</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1724,7 +1724,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>132924669816</v>
+        <v>134631367853</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1738,17 +1738,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5453 552838</t>
+          <t xml:space="preserve"> +(44)7584 226025</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>boris_parker1431957389@twace.org</t>
+          <t>boris_parker583003645@twace.org</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cloth  Crossroad, 6753</t>
+          <t>Belgrave  Road, 1998</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1759,7 +1759,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>132924409017</v>
+        <v>134626150769</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1773,17 +1773,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7584 226025</t>
+          <t xml:space="preserve"> +(44)5453 552838</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>boris_parker583003645@twace.org</t>
+          <t>boris_parker1431957389@twace.org</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Belgrave  Road, 1998</t>
+          <t>Cloth  Crossroad, 6753</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1794,7 +1794,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>132915056220</v>
+        <v>134626385042</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>132916787884</v>
+        <v>134629227807</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>132922397586</v>
+        <v>134660357495</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1876,15 +1876,19 @@
           <t>Casey</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)7736 458868</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>brad_casey91675552+104@extex.org</t>
+          <t>brad_casey91675552+102@extex.org</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Badric  Tunnel, 6784</t>
+          <t>Clerkenwell Vale, 6739</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1895,7 +1899,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>132910630489</v>
+        <v>134630293360</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1907,19 +1911,15 @@
           <t>Casey</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)7736 458868</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>brad_casey91675552+102@extex.org</t>
+          <t>brad_casey91675552+104@extex.org</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Clerkenwell Vale, 6739</t>
+          <t>Badric  Tunnel, 6784</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1930,7 +1930,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>132924337833</v>
+        <v>134626230450</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>132914700646</v>
+        <v>134660428054</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>132924732741</v>
+        <v>134657273267</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>132912771193</v>
+        <v>134631567217</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>132910908168</v>
+        <v>134629862426</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>132924732715</v>
+        <v>134657850414</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>132923444151</v>
+        <v>134633702762</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>132923081377</v>
+        <v>134627220486</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>132916788045</v>
+        <v>134610766009</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>132911703320</v>
+        <v>134658466704</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2256,12 +2256,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>bryon_james964377164+103@gompie.com</t>
+          <t>bryon_james964377164+101@gompie.com</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mariner  Way, 445</t>
+          <t>Walnut Boulevard, 3808</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2272,7 +2272,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>132911498152</v>
+        <v>134659261966</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2291,12 +2291,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>bryon_james964377164+101@gompie.com</t>
+          <t>bryon_james964377164+103@gompie.com</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Walnut Boulevard, 3808</t>
+          <t>Mariner  Way, 445</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2307,7 +2307,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>132924337747</v>
+        <v>134630081435</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2321,17 +2321,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)7102 467022</t>
+          <t xml:space="preserve"> +(44)2624 668267</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>caleb_palmer742432896@brety.org</t>
+          <t>caleb_palmer688783444@brety.org</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Maple Boulevard, 564</t>
+          <t>Cleveland  Hill, 863</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2342,7 +2342,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>132923159567</v>
+        <v>134630608194</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2624 668267</t>
+          <t xml:space="preserve"> +(353)7102 467022</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>caleb_palmer688783444@brety.org</t>
+          <t>caleb_palmer742432896@brety.org</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Cleveland  Hill, 863</t>
+          <t>Maple Boulevard, 564</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2377,7 +2377,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>132910294896</v>
+        <v>134632684974</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2389,19 +2389,15 @@
           <t>Paterson</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)4454 480214</t>
-        </is>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>chad_paterson2093044322@typill.biz</t>
+          <t>chad_paterson2093044322+102@typill.biz</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Rivervalley Tunnel, 1160</t>
+          <t>Westbourne Tunnel, 7654</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2412,7 +2408,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>132911173812</v>
+        <v>134657273268</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2424,15 +2420,19 @@
           <t>Paterson</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)4454 480214</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>chad_paterson2093044322+102@typill.biz</t>
+          <t>chad_paterson2093044322@typill.biz</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Westbourne Tunnel, 7654</t>
+          <t>Rivervalley Tunnel, 1160</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2443,7 +2443,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>132914399040</v>
+        <v>134631345472</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>132916082193</v>
+        <v>134660427908</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>132912771207</v>
+        <v>134626787689</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>chester_windsor1604043110+103@extex.org</t>
+          <t>chester_windsor1604043110+107@extex.org</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Maple Vale, 1465</t>
+          <t>Marischal  Route, 3412</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2548,7 +2548,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>132914963046</v>
+        <v>134660357516</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2567,12 +2567,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>chester_windsor1604043110+107@extex.org</t>
+          <t>chester_windsor1604043110+104@extex.org</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Marischal  Route, 3412</t>
+          <t>Linda   Road, 1147</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2583,7 +2583,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>132898965399</v>
+        <v>134660841278</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2595,15 +2595,19 @@
           <t>Windsor</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)8318 086458</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>chester_windsor1604043110+105@extex.org</t>
+          <t>chester_windsor1604043110+103@extex.org</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Fieldstone Pass, 8173</t>
+          <t>Maple Vale, 1465</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2614,7 +2618,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>132912771204</v>
+        <v>134658262383</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2626,19 +2630,15 @@
           <t>Windsor</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)8318 086458</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>chester_windsor1604043110+104@extex.org</t>
+          <t>chester_windsor1604043110+105@extex.org</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Linda   Road, 1147</t>
+          <t>Fieldstone Pass, 8173</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2649,7 +2649,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>132911795477</v>
+        <v>134630293305</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>132914700576</v>
+        <v>134629227821</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>132911299719</v>
+        <v>134626787672</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2738,12 +2738,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>clint_yard287681084@iatim.tech</t>
+          <t>clint_yard287681084+103@iatim.tech</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Chambers  Street, 97</t>
+          <t>Waldram Park  Grove, 6478</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2754,7 +2754,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>132924732742</v>
+        <v>134626631518</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2766,15 +2766,19 @@
           <t>Yard</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)7204 236315</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>clint_yard287681084+105@iatim.tech</t>
+          <t>clint_yard287681084@iatim.tech</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Thorndike   Way, 83</t>
+          <t>Chambers  Street, 97</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2785,7 +2789,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>132924274019</v>
+        <v>134630149523</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2800,12 +2804,12 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>clint_yard287681084+104@iatim.tech</t>
+          <t>clint_yard287681084+101@iatim.tech</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Biggerstaff   Road, 6797</t>
+          <t>Sheringham   Route, 2058</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2816,7 +2820,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>132912049793</v>
+        <v>134659119633</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2828,19 +2832,15 @@
           <t>Yard</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)7204 236315</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>clint_yard287681084+102@iatim.tech</t>
+          <t>clint_yard287681084+104@iatim.tech</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Coal Wharf  Pass, 6986</t>
+          <t>Biggerstaff   Road, 6797</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2851,7 +2851,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>132912049788</v>
+        <v>134630081447</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2866,12 +2866,12 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>clint_yard287681084+101@iatim.tech</t>
+          <t>clint_yard287681084+105@iatim.tech</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sheringham   Route, 2058</t>
+          <t>Thorndike   Way, 83</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2882,7 +2882,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>132916656031</v>
+        <v>134659072273</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2901,12 +2901,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>clint_yard287681084+103@iatim.tech</t>
+          <t>clint_yard287681084+102@iatim.tech</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Waldram Park  Grove, 6478</t>
+          <t>Coal Wharf  Pass, 6986</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2917,7 +2917,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>132912871488</v>
+        <v>134626385166</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2929,15 +2929,19 @@
           <t>Owen</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)5574 876421</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>daniel_owen1303681224+102@fuliss.net</t>
+          <t>daniel_owen1303681224+101@fuliss.net</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ernest  Rue, 9670</t>
+          <t>Hammersmith  Road, 496</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2948,7 +2952,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>132910695176</v>
+        <v>134627981985</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2960,19 +2964,15 @@
           <t>Owen</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)5574 876421</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>daniel_owen1303681224+101@fuliss.net</t>
+          <t>daniel_owen1303681224+102@fuliss.net</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Hammersmith  Road, 496</t>
+          <t>Ernest  Rue, 9670</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2983,7 +2983,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>132921966191</v>
+        <v>134660466440</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>132914399245</v>
+        <v>134630655799</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3028,17 +3028,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4305 36736</t>
+          <t xml:space="preserve"> +(44)4073 362023</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>danny_gordon258052006@zorer.org</t>
+          <t>danny_gordon1881098827@zorer.org</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Gate   Alley, 1102</t>
+          <t>Fairfield  Rue, 3872</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3049,7 +3049,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>132923647353</v>
+        <v>134610766090</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3063,17 +3063,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4073 362023</t>
+          <t xml:space="preserve"> +(44)4305 36736</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>danny_gordon1881098827@zorer.org</t>
+          <t>danny_gordon258052006@zorer.org</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Fairfield  Rue, 3872</t>
+          <t>Gate   Alley, 1102</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3084,7 +3084,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>132914762336</v>
+        <v>134630149504</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>132910908175</v>
+        <v>134654791803</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>132914194704</v>
+        <v>134659072275</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3166,19 +3166,15 @@
           <t>Amstead</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)2530 622225</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>denis_amstead1787356310+104@acrit.org</t>
+          <t>denis_amstead1787356310+106@acrit.org</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Rosewood Tunnel, 1409</t>
+          <t>Baltic  Way, 9748</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3189,7 +3185,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>132919827218</v>
+        <v>134660284161</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3201,15 +3197,19 @@
           <t>Amstead</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)2530 622225</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>denis_amstead1787356310+106@acrit.org</t>
+          <t>denis_amstead1787356310+104@acrit.org</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Baltic  Way, 9748</t>
+          <t>Rosewood Tunnel, 1409</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3220,7 +3220,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>132919389612</v>
+        <v>134626631529</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3239,12 +3239,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>denis_boyle1570473023+102@gompie.com</t>
+          <t>denis_boyle1570473023@gompie.com</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Enford   Road, 7959</t>
+          <t>Clarks  Alley, 4115</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3255,7 +3255,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>132923159613</v>
+        <v>134658223884</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3274,12 +3274,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>denis_boyle1570473023@gompie.com</t>
+          <t>denis_boyle1570473023+102@gompie.com</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Clarks  Alley, 4115</t>
+          <t>Enford   Road, 7959</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3290,7 +3290,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>132914339233</v>
+        <v>134660566587</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>132915120462</v>
+        <v>134658223874</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>132912871351</v>
+        <v>134660601864</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3370,17 +3370,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)5848 63687</t>
+          <t xml:space="preserve"> +(44)1526 621883</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>denis_mccormick1436215675@naiker.biz</t>
+          <t>denis_mccormick2094956808@naiker.biz</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Boadicea   Route, 3922</t>
+          <t>Sheffield Route, 3139</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3391,7 +3391,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>132922326646</v>
+        <v>134631878231</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3405,17 +3405,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1526 621883</t>
+          <t xml:space="preserve"> +(353)5848 63687</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>denis_mccormick2094956808@naiker.biz</t>
+          <t>denis_mccormick1436215675@naiker.biz</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sheffield Route, 3139</t>
+          <t>Boadicea   Route, 3922</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3426,7 +3426,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>132922618727</v>
+        <v>134627351920</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>132916015705</v>
+        <v>134627178760</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>132912623267</v>
+        <v>134632722688</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>132919389536</v>
+        <v>134658262288</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>132919827230</v>
+        <v>134658223892</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3578,19 +3578,15 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)5850 843832</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>eduardo_long1683975626+101@bretoux.com</t>
+          <t>eduardo_long1683975626@bretoux.com</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bacon  Lane, 3421</t>
+          <t>Virginia Way, 9273</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3601,7 +3597,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>132923444150</v>
+        <v>134658430890</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3613,15 +3609,19 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)5850 843832</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>eduardo_long1683975626@bretoux.com</t>
+          <t>eduardo_long1683975626+101@bretoux.com</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Virginia Way, 9273</t>
+          <t>Bacon  Lane, 3421</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3632,7 +3632,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>132915394817</v>
+        <v>134630149518</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>132910630483</v>
+        <v>134657850461</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3675,19 +3675,15 @@
           <t>Quinn</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)1660 817711</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>eduardo_quinn1602340966@famism.biz</t>
+          <t>eduardo_quinn1602340966+104@famism.biz</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bingham   Boulevard, 5368</t>
+          <t>Castle Route, 2193</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3698,7 +3694,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>132919827217</v>
+        <v>134660791068</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3710,15 +3706,19 @@
           <t>Quinn</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)1660 817711</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>eduardo_quinn1602340966+104@famism.biz</t>
+          <t>eduardo_quinn1602340966@famism.biz</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Castle Route, 2193</t>
+          <t>Bingham   Boulevard, 5368</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>132924473273</v>
+        <v>134633702704</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3743,17 +3743,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)5122 650740</t>
+          <t xml:space="preserve"> +(353)3067 168376</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>emmanuelle_cunningham209083436@dionrab.com</t>
+          <t>emmanuelle_cunningham1965819634@dionrab.com</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Balham   Lane, 5013</t>
+          <t>Calvin   Drive, 9001</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3764,7 +3764,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>132916655964</v>
+        <v>134627262891</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3778,17 +3778,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)3067 168376</t>
+          <t xml:space="preserve"> +(353)5122 650740</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>emmanuelle_cunningham1965819634@dionrab.com</t>
+          <t>emmanuelle_cunningham209083436@dionrab.com</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Calvin   Drive, 9001</t>
+          <t>Balham   Lane, 5013</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3799,7 +3799,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>132910695047</v>
+        <v>134627981942</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>132923722912</v>
+        <v>134660647008</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>132919389609</v>
+        <v>134630293349</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3888,12 +3888,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>erick_holt2014841980+104@ovock.tech</t>
+          <t>erick_holt2014841980+105@ovock.tech</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Birkbeck  Route, 2358</t>
+          <t>Belgrave  Crossroad, 7401</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3904,7 +3904,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>132912723060</v>
+        <v>134626230434</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3923,12 +3923,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>erick_holt2014841980+105@ovock.tech</t>
+          <t>erick_holt2014841980+102@ovock.tech</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Belgrave  Crossroad, 7401</t>
+          <t>Camera  Tunnel, 3496</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3939,7 +3939,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>132924535337</v>
+        <v>134626108962</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3958,12 +3958,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>erick_holt2014841980@ovock.tech</t>
+          <t>erick_holt2014841980+104@ovock.tech</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bales  Drive, 1780</t>
+          <t>Birkbeck  Route, 2358</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3974,7 +3974,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>132910757693</v>
+        <v>134632497515</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3993,12 +3993,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>erick_holt2014841980+102@ovock.tech</t>
+          <t>erick_holt2014841980@ovock.tech</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Camera  Tunnel, 3496</t>
+          <t>Bales  Drive, 1780</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4009,7 +4009,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>132910630480</v>
+        <v>134660466549</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ethan_reynolds1948188016+102@fuliss.net</t>
+          <t>ethan_reynolds1948188016+103@fuliss.net</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Chamberlain  Walk, 1884</t>
+          <t>Mariner  Road, 5893</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4044,7 +4044,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>132914700648</v>
+        <v>134626787671</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4063,12 +4063,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ethan_reynolds1948188016+103@fuliss.net</t>
+          <t>ethan_reynolds1948188016+102@fuliss.net</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mariner  Road, 5893</t>
+          <t>Chamberlain  Walk, 1884</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4079,7 +4079,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>132924602991</v>
+        <v>134630149441</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>132913894438</v>
+        <v>134627981976</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>132915666072</v>
+        <v>134659261844</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4163,17 +4163,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)6721 144780</t>
+          <t xml:space="preserve"> +(44)2348 180247</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>george_martin1429584957@qater.org</t>
+          <t>george_martin1059741221@qater.org</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Cato   Crossroad, 278</t>
+          <t>Rail Lane, 5874</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4184,7 +4184,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>132915120419</v>
+        <v>134627220402</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4198,17 +4198,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2348 180247</t>
+          <t xml:space="preserve"> +(353)6721 144780</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>george_martin1059741221@qater.org</t>
+          <t>george_martin1429584957@qater.org</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Rail Lane, 5874</t>
+          <t>Cato   Crossroad, 278</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4219,7 +4219,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>132914762347</v>
+        <v>134659119626</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4231,19 +4231,15 @@
           <t>Radcliffe</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)5544 338442</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>george_radcliffe235655210@nanoff.biz</t>
+          <t>george_radcliffe235655210+104@nanoff.biz</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Elf  Grove, 736</t>
+          <t>Castlereagh   Pass, 1084</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4254,7 +4250,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>132914263138</v>
+        <v>134657625728</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4266,15 +4262,19 @@
           <t>Radcliffe</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)5544 338442</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>george_radcliffe235655210+104@nanoff.biz</t>
+          <t>george_radcliffe235655210@nanoff.biz</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Castlereagh   Pass, 1084</t>
+          <t>Elf  Grove, 736</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4285,7 +4285,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>132916927321</v>
+        <v>134658223793</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>132911237747</v>
+        <v>134660790920</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4334,17 +4334,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1874 215514</t>
+          <t xml:space="preserve"> +(44)1725 671383</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>hank_ebden1273785690@twace.org</t>
+          <t>hank_ebden1543066336@twace.org</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Arlington  Rue, 2226</t>
+          <t>Linda   Crossroad, 4430</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4355,7 +4355,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>132914762289</v>
+        <v>134630045230</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4369,17 +4369,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1725 671383</t>
+          <t xml:space="preserve"> +(44)1874 215514</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>hank_ebden1543066336@twace.org</t>
+          <t>hank_ebden1273785690@twace.org</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Linda   Crossroad, 4430</t>
+          <t>Arlington  Rue, 2226</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4390,7 +4390,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132924473403</v>
+        <v>134626306084</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>132914460930</v>
+        <v>134633475843</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4437,15 +4437,19 @@
           <t>Roberts</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)1655 221211</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>hank_roberts1808907109@twipet.com</t>
+          <t>hank_roberts1808907109+103@twipet.com</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sherwood  Hill, 253</t>
+          <t>Canon Walk, 1444</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4456,7 +4460,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>132919389610</v>
+        <v>134656385107</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4468,19 +4472,15 @@
           <t>Roberts</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)1655 221211</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>hank_roberts1808907109+103@twipet.com</t>
+          <t>hank_roberts1808907109+102@twipet.com</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Canon Walk, 1444</t>
+          <t>Tiptree   Avenue, 6215</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4491,7 +4491,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>132911703322</v>
+        <v>134631721652</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4506,12 +4506,12 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>hank_roberts1808907109+102@twipet.com</t>
+          <t>hank_roberts1808907109@twipet.com</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Tiptree   Avenue, 6215</t>
+          <t>Sherwood  Hill, 253</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4522,7 +4522,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>132914963036</v>
+        <v>134660841255</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>132923231044</v>
+        <v>134626150720</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>132916788036</v>
+        <v>134633894237</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>132912723061</v>
+        <v>134658466700</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>132922618786</v>
+        <v>134628256072</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>132922688000</v>
+        <v>134659937413</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>132919827229</v>
+        <v>134629227887</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>132914762292</v>
+        <v>134629227797</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>132915120463</v>
+        <v>134634171806</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>132914700615</v>
+        <v>134631567189</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>132911703223</v>
+        <v>134610765998</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>132919389592</v>
+        <v>134629227894</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>132916927272</v>
+        <v>134631567155</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>132915331401</v>
+        <v>134631345439</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4979,17 +4979,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1776 252787</t>
+          <t xml:space="preserve"> +(353)7357 204220</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>helen_olivier389926689@nickia.com</t>
+          <t>helen_olivier2111316695@nickia.com</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cobden  Hill, 6667</t>
+          <t>Timber   Route, 1661</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5000,7 +5000,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>132916015729</v>
+        <v>134632722605</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5014,17 +5014,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)7357 204220</t>
+          <t xml:space="preserve"> +(44)1776 252787</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>helen_olivier2111316695@nickia.com</t>
+          <t>helen_olivier389926689@nickia.com</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Timber   Route, 1661</t>
+          <t>Cobden  Hill, 6667</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5035,7 +5035,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>132912405780</v>
+        <v>134632342141</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>132916015717</v>
+        <v>134630809527</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>132924273961</v>
+        <v>134626150740</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>132924205178</v>
+        <v>134626306080</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>132911795515</v>
+        <v>134658954859</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5189,17 +5189,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4306 60526</t>
+          <t xml:space="preserve"> +(353)4444 408446</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>jackeline_baldwin2098796491@iatim.tech</t>
+          <t>jackeline_baldwin1235939602@iatim.tech</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Clerkenwell Route, 5877</t>
+          <t>Thomas  Street, 2085</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5210,7 +5210,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>132915056248</v>
+        <v>134659119545</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5224,17 +5224,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4444 408446</t>
+          <t xml:space="preserve"> +(44)4306 60526</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>jackeline_baldwin1235939602@iatim.tech</t>
+          <t>jackeline_baldwin2098796491@iatim.tech</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Thomas  Street, 2085</t>
+          <t>Clerkenwell Route, 5877</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5245,7 +5245,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>132914460936</v>
+        <v>134660601881</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5257,19 +5257,15 @@
           <t>Nobbs</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)1043 56031</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>jack_nobbs214667606@supunk.biz</t>
+          <t>jack_nobbs214667606+102@supunk.biz</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Union  Pass, 9912</t>
+          <t>Thoresby   Alley, 2137</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5280,7 +5276,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>132924473407</v>
+        <v>134631368009</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5292,19 +5288,15 @@
           <t>Nobbs</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)1043 56031</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>jack_nobbs214667606+104@supunk.biz</t>
+          <t>jack_nobbs214667606+103@supunk.biz</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Sherlock   Alley, 7670</t>
+          <t>Pine Route, 3220</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5315,7 +5307,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>132919827231</v>
+        <v>134627220482</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5327,15 +5319,19 @@
           <t>Nobbs</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)1043 56031</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>jack_nobbs214667606+102@supunk.biz</t>
+          <t>jack_nobbs214667606@supunk.biz</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Thoresby   Alley, 2137</t>
+          <t>Union  Pass, 9912</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5346,7 +5342,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>132912623286</v>
+        <v>134656593522</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5358,15 +5354,19 @@
           <t>Nobbs</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)1043 56031</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>jack_nobbs214667606+103@supunk.biz</t>
+          <t>jack_nobbs214667606+104@supunk.biz</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Pine Route, 3220</t>
+          <t>Sherlock   Alley, 7670</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5377,7 +5377,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>132910908078</v>
+        <v>134660238338</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>132912723001</v>
+        <v>134626385054</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>132923017771</v>
+        <v>134658299262</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>132916927296</v>
+        <v>134629720627</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>132922618758</v>
+        <v>134660238355</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>132923081138</v>
+        <v>134631345443</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>132921138246</v>
+        <v>134659119513</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5601,17 +5601,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7325 272615</t>
+          <t xml:space="preserve"> +(353)1758 243635</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>janelle_jenkin477296876@mafthy.com</t>
+          <t>janelle_jenkin1681732643@mafthy.com</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Underwood  Street, 2</t>
+          <t>Epworth  Hill, 7952</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5622,7 +5622,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>132912623235</v>
+        <v>134626787618</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5636,17 +5636,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)1758 243635</t>
+          <t xml:space="preserve"> +(44)7325 272615</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>janelle_jenkin1681732643@mafthy.com</t>
+          <t>janelle_jenkin477296876@mafthy.com</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Epworth  Hill, 7952</t>
+          <t>Underwood  Street, 2</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5657,7 +5657,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>132911299693</v>
+        <v>134658299253</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>132914460928</v>
+        <v>134628600199</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>132922618756</v>
+        <v>134632497443</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>132923444076</v>
+        <v>134627178775</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>132914068365</v>
+        <v>134657625690</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5811,17 +5811,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1785 640032</t>
+          <t xml:space="preserve"> +(353)6841 316422</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>jayden_larsen1958027748@corti.com</t>
+          <t>jayden_larsen1417914295@corti.com</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Chatfield  Alley, 3060</t>
+          <t>Camden  Vale, 8360</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5832,7 +5832,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>132912343467</v>
+        <v>134630293299</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5846,17 +5846,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)6841 316422</t>
+          <t xml:space="preserve"> +(44)1785 640032</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>jayden_larsen1417914295@corti.com</t>
+          <t>jayden_larsen1958027748@corti.com</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Camden  Vale, 8360</t>
+          <t>Chatfield  Alley, 3060</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5867,7 +5867,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>132922193548</v>
+        <v>134626385152</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5881,17 +5881,17 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)6842 322300</t>
+          <t xml:space="preserve"> +(44)3188 060518</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>jayden_umney400364160@supunk.biz</t>
+          <t>jayden_umney1707306534@supunk.biz</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Cavaye  Crossroad, 5274</t>
+          <t>Maple Avenue, 8680</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5902,7 +5902,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>132924732720</v>
+        <v>134626631457</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5916,17 +5916,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3188 060518</t>
+          <t xml:space="preserve"> +(44)6842 322300</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>jayden_umney1707306534@supunk.biz</t>
+          <t>jayden_umney400364160@supunk.biz</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Maple Avenue, 8680</t>
+          <t>Cavaye  Crossroad, 5274</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5937,7 +5937,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>132915056278</v>
+        <v>134660428044</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>johnathan_campbell236114447+104@typill.biz</t>
+          <t>johnathan_campbell236114447+103@typill.biz</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Yorkshire  Avenue, 4759</t>
+          <t>Beatty  Alley, 71</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -5972,7 +5972,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>132921138295</v>
+        <v>134660466548</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5991,12 +5991,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>johnathan_campbell236114447+103@typill.biz</t>
+          <t>johnathan_campbell236114447+104@typill.biz</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Beatty  Alley, 71</t>
+          <t>Yorkshire  Avenue, 4759</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6007,7 +6007,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>132915056261</v>
+        <v>134660647214</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>132916015765</v>
+        <v>134630655854</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>132922397533</v>
+        <v>134654791780</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6091,17 +6091,17 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3125 530563</t>
+          <t xml:space="preserve"> +(353)2308 017445</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>joseph_mcleod1574769821@sheye.org</t>
+          <t>joseph_mcleod818477666@sheye.org</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Cable    Grove, 1729</t>
+          <t>Bagford   Street, 4640</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6112,7 +6112,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>132911237721</v>
+        <v>134628255926</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -6126,17 +6126,17 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2308 017445</t>
+          <t xml:space="preserve"> +(44)3125 530563</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>joseph_mcleod818477666@sheye.org</t>
+          <t>joseph_mcleod1574769821@sheye.org</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Bagford   Street, 4640</t>
+          <t>Cable    Grove, 1729</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6147,7 +6147,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>132913109852</v>
+        <v>134631345451</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>132921138278</v>
+        <v>134632342194</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>132914460929</v>
+        <v>134630081446</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>132924535335</v>
+        <v>134626150794</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>132922688018</v>
+        <v>134634171813</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>132923444149</v>
+        <v>134626108968</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>132922754165</v>
+        <v>134658188421</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>132913463129</v>
+        <v>134630045242</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>132914963023</v>
+        <v>134659029319</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>132924473347</v>
+        <v>134658954872</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6468,17 +6468,17 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7165 356670</t>
+          <t xml:space="preserve"> +(44)6643 455215</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>julius_holmes75378741@deavo.com</t>
+          <t>julius_holmes1964409319@deavo.com</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Cedarne  Boulevard, 7785</t>
+          <t>Adams  Boulevard, 5894</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6489,7 +6489,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>132910294845</v>
+        <v>134631367955</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6503,17 +6503,17 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)6643 455215</t>
+          <t xml:space="preserve"> +(44)7165 356670</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>julius_holmes1964409319@deavo.com</t>
+          <t>julius_holmes75378741@deavo.com</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Adams  Boulevard, 5894</t>
+          <t>Cedarne  Boulevard, 7785</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6524,7 +6524,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>132923159559</v>
+        <v>134660647185</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>132916082262</v>
+        <v>134660284083</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>132914460941</v>
+        <v>134660647234</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>132924205189</v>
+        <v>134630608234</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>132924732743</v>
+        <v>134658430878</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>leroy_dwyer505528803+101@brety.org</t>
+          <t>leroy_dwyer505528803@brety.org</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Emily  Way, 7361</t>
+          <t>Cavell   Street, 7744</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6695,7 +6695,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>132898965405</v>
+        <v>134630655844</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6714,12 +6714,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>leroy_dwyer505528803@brety.org</t>
+          <t>leroy_dwyer505528803+101@brety.org</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Cavell   Street, 7744</t>
+          <t>Emily  Way, 7361</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6730,7 +6730,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>132910695174</v>
+        <v>134660466573</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -6742,15 +6742,19 @@
           <t>Harris</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)7771 717555</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>leroy_harris84853752+104@bulaffy.com</t>
+          <t>leroy_harris84853752@bulaffy.com</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Aylward   Street, 2377</t>
+          <t>Paris   Street, 2550</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6761,7 +6765,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>132912405820</v>
+        <v>134632722697</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6773,19 +6777,15 @@
           <t>Harris</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)7771 717555</t>
-        </is>
-      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>leroy_harris84853752@bulaffy.com</t>
+          <t>leroy_harris84853752+104@bulaffy.com</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Paris   Street, 2550</t>
+          <t>Aylward   Street, 2377</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -6796,7 +6796,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>132915056243</v>
+        <v>134626230391</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6810,17 +6810,17 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5025 01426</t>
+          <t xml:space="preserve"> +(44)5538 032723</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>liam_rowlands1242144715@nickia.com</t>
+          <t>liam_rowlands423085056@nickia.com</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Woodland Avenue, 1619</t>
+          <t>Beaumont  Crossroad, 9351</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6831,7 +6831,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>132920811906</v>
+        <v>134627351944</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6845,17 +6845,17 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5538 032723</t>
+          <t xml:space="preserve"> +(44)5025 01426</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>liam_rowlands423085056@nickia.com</t>
+          <t>liam_rowlands1242144715@nickia.com</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Beaumont  Crossroad, 9351</t>
+          <t>Woodland Avenue, 1619</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -6866,7 +6866,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>132910823862</v>
+        <v>134659029336</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6880,17 +6880,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2830 318370</t>
+          <t xml:space="preserve"> +(44)3667 117480</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>logan_brown815210110@atink.com</t>
+          <t>logan_brown860259343@atink.com</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Maple Road, 6689</t>
+          <t>Apothecary   Crossroad, 4088</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -6901,7 +6901,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>132922754141</v>
+        <v>134658299208</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6915,17 +6915,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3667 117480</t>
+          <t xml:space="preserve"> +(44)2830 318370</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>logan_brown860259343@atink.com</t>
+          <t>logan_brown815210110@atink.com</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Apothecary   Crossroad, 4088</t>
+          <t>Maple Road, 6689</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -6936,7 +6936,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>132916593487</v>
+        <v>134627351950</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6950,17 +6950,17 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4084 330035</t>
+          <t xml:space="preserve"> +(353)8764 035722</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>lorraine_amstead1420394775@nickia.com</t>
+          <t>lorraine_amstead2010589656@nickia.com</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Duthie   Tunnel, 8303</t>
+          <t>Balfour    Boulevard, 946</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -6971,7 +6971,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>132921138258</v>
+        <v>134633702696</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6985,17 +6985,17 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)8764 035722</t>
+          <t xml:space="preserve"> +(353)4084 330035</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>lorraine_amstead2010589656@nickia.com</t>
+          <t>lorraine_amstead1420394775@nickia.com</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Balfour    Boulevard, 946</t>
+          <t>Duthie   Tunnel, 8303</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7006,7 +7006,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>132914963038</v>
+        <v>134630045249</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>132916015728</v>
+        <v>134660466342</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>132924473271</v>
+        <v>134658223769</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -7090,17 +7090,17 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)8677 733824</t>
+          <t xml:space="preserve"> +(353)4766 211655</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>margot_richardson1954224826@twace.org</t>
+          <t>margot_richardson1284562139@twace.org</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Bellenden  Way, 7164</t>
+          <t>Longman   Rue, 7421</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7111,7 +7111,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>132915120425</v>
+        <v>134626108846</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -7125,17 +7125,17 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)4766 211655</t>
+          <t xml:space="preserve"> +(44)8677 733824</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>margot_richardson1284562139@twace.org</t>
+          <t>margot_richardson1954224826@twace.org</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Longman   Rue, 7421</t>
+          <t>Bellenden  Way, 7164</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7146,7 +7146,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>132915056276</v>
+        <v>134657273270</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -7158,19 +7158,15 @@
           <t>Redfern</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)3073 480524</t>
-        </is>
-      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>mason_redfern1913258047+101@extex.org</t>
+          <t>mason_redfern1913258047+103@extex.org</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Catherine  Pass, 1830</t>
+          <t>Carol   Grove, 9305</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7181,7 +7177,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>132914068489</v>
+        <v>134658262369</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -7193,15 +7189,19 @@
           <t>Redfern</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)3073 480524</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>mason_redfern1913258047+103@extex.org</t>
+          <t>mason_redfern1913258047+101@extex.org</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Carol   Grove, 9305</t>
+          <t>Catherine  Pass, 1830</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7212,7 +7212,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>132916788039</v>
+        <v>134630293358</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -7227,12 +7227,12 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>mason_redfern1913258047+102@extex.org</t>
+          <t>mason_redfern1913258047@extex.org</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Wakley   Boulevard, 5558</t>
+          <t>Camdenhurst   Street, 2762</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7243,7 +7243,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>132914194702</v>
+        <v>134658430888</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -7258,12 +7258,12 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>mason_redfern1913258047@extex.org</t>
+          <t>mason_redfern1913258047+102@extex.org</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Camdenhurst   Street, 2762</t>
+          <t>Wakley   Boulevard, 5558</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7274,7 +7274,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>132915394820</v>
+        <v>134658223888</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -7288,17 +7288,17 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)7807 38611</t>
+          <t xml:space="preserve"> +(353)2428 75615</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>maxwell_khan303014328@grannar.com</t>
+          <t>maxwell_khan1379394319@grannar.com</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Pine Vale, 6441</t>
+          <t>Coalecroft  Crossroad, 8609</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7309,7 +7309,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>132921138279</v>
+        <v>134660284077</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -7323,17 +7323,17 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2428 75615</t>
+          <t xml:space="preserve"> +(44)7807 38611</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>maxwell_khan1379394319@grannar.com</t>
+          <t>maxwell_khan303014328@grannar.com</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Coalecroft  Crossroad, 8609</t>
+          <t>Pine Vale, 6441</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7344,7 +7344,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>132914263144</v>
+        <v>134626230437</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -7363,12 +7363,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>michael_veale472491137+103@gembat.biz</t>
+          <t>michael_veale472491137+105@gembat.biz</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Bellenden   Drive, 6655</t>
+          <t>Archery  Street, 1509</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7379,7 +7379,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>132924669846</v>
+        <v>134626385176</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -7398,12 +7398,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>michael_veale472491137+105@gembat.biz</t>
+          <t>michael_veale472491137+102@gembat.biz</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Archery  Street, 1509</t>
+          <t>Berriman  Lane, 9321</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7414,7 +7414,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>132924337835</v>
+        <v>134660284089</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -7433,12 +7433,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>michael_veale472491137+102@gembat.biz</t>
+          <t>michael_veale472491137+103@gembat.biz</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Berriman  Lane, 9321</t>
+          <t>Bellenden   Drive, 6655</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7449,7 +7449,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>132922688009</v>
+        <v>134610766087</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -7461,19 +7461,15 @@
           <t>Roth</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)6807 838610</t>
-        </is>
-      </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>nate_roth902590743@liret.org</t>
+          <t>nate_roth902590743+101@liret.org</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Monroe Road, 4532</t>
+          <t>Cingworth  Grove, 5344</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7484,7 +7480,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>132923231113</v>
+        <v>134633894246</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7496,15 +7492,19 @@
           <t>Roth</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)6807 838610</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>nate_roth902590743+101@liret.org</t>
+          <t>nate_roth902590743+106@liret.org</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Cingworth  Grove, 5344</t>
+          <t>Thomas  Route, 9954</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7515,7 +7515,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>132911795532</v>
+        <v>134660466546</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>132924535333</v>
+        <v>134626306083</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -7569,12 +7569,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>nate_roth902590743+106@liret.org</t>
+          <t>nate_roth902590743@liret.org</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Thomas  Route, 9954</t>
+          <t>Monroe Road, 4532</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7585,7 +7585,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>132914194705</v>
+        <v>134626230420</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7597,19 +7597,15 @@
           <t>Tanner</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)3156 686087</t>
-        </is>
-      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>noah_tanner17953585+103@acrit.org</t>
+          <t>noah_tanner17953585@acrit.org</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Walnut Vale, 1387</t>
+          <t>King William  Hill, 3515</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -7620,7 +7616,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>132924535332</v>
+        <v>134630081458</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7655,7 +7651,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>132914154503</v>
+        <v>134625997062</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7690,7 +7686,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>132911041035</v>
+        <v>134656593521</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7702,15 +7698,19 @@
           <t>Tanner</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)3156 686087</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>noah_tanner17953585@acrit.org</t>
+          <t>noah_tanner17953585+103@acrit.org</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>King William  Hill, 3515</t>
+          <t>Walnut Vale, 1387</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7721,7 +7721,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>132910908205</v>
+        <v>134632497512</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7733,19 +7733,15 @@
           <t>Blackburn</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)2432 212485</t>
-        </is>
-      </c>
+      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>oliver_blackburn1495449589+103@kideod.biz</t>
+          <t>oliver_blackburn1495449589@kideod.biz</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Maple Boulevard, 9759</t>
+          <t>Bond Road, 4019</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7756,7 +7752,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>132921073563</v>
+        <v>134659029334</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7768,15 +7764,19 @@
           <t>Blackburn</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)2432 212485</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>oliver_blackburn1495449589@kideod.biz</t>
+          <t>oliver_blackburn1495449589+103@kideod.biz</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Bond Road, 4019</t>
+          <t>Maple Boulevard, 9759</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -7787,7 +7787,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>132921138252</v>
+        <v>134658430902</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7801,17 +7801,17 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5710 41261</t>
+          <t xml:space="preserve"> +(353)2080 633128</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>owen_pearce1384504456@deavo.com</t>
+          <t>owen_pearce970437319@deavo.com</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Thrale   Route, 4026</t>
+          <t>Gatonby   Grove, 7775</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -7822,7 +7822,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>132921011118</v>
+        <v>134633475720</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7836,17 +7836,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)2080 633128</t>
+          <t xml:space="preserve"> +(44)5710 41261</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>owen_pearce970437319@deavo.com</t>
+          <t>owen_pearce1384504456@deavo.com</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Gatonby   Grove, 7775</t>
+          <t>Thrale   Route, 4026</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -7857,7 +7857,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>132922618789</v>
+        <v>134658954915</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>132924409170</v>
+        <v>134626150789</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7911,12 +7911,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>owen_wigley177952980@extex.org</t>
+          <t>owen_wigley177952980+102@extex.org</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Elystan  Drive, 8938</t>
+          <t>Kingly  Way, 4888</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -7927,7 +7927,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>132912049799</v>
+        <v>134657625707</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7939,19 +7939,15 @@
           <t>Wigley</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)8027 13401</t>
-        </is>
-      </c>
+      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>owen_wigley177952980+102@extex.org</t>
+          <t>owen_wigley177952980+105@extex.org</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Kingly  Way, 4888</t>
+          <t>King Avenue, 4034</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -7962,7 +7958,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>132922817308</v>
+        <v>134630045257</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -7974,15 +7970,19 @@
           <t>Wigley</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)8027 13401</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>owen_wigley177952980+105@extex.org</t>
+          <t>owen_wigley177952980@extex.org</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>King Avenue, 4034</t>
+          <t>Elystan  Drive, 8938</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -7993,7 +7993,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>132922193665</v>
+        <v>134628036667</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>132911703210</v>
+        <v>134631345462</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>132922397542</v>
+        <v>134654869430</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -8098,7 +8098,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>132921966177</v>
+        <v>134632342171</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>132922193593</v>
+        <v>134627981974</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>132922817283</v>
+        <v>134630478869</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>132910757671</v>
+        <v>134659119524</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>132914339209</v>
+        <v>134660601861</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>132913894432</v>
+        <v>134630293346</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -8285,19 +8285,15 @@
           <t>Cooper</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)6020 264200</t>
-        </is>
-      </c>
+      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>phillip_cooper2140654386+104@jiman.org</t>
+          <t>phillip_cooper2140654386+101@jiman.org</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Argyle  Lane, 9868</t>
+          <t>Chart   Pass, 2430</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8308,7 +8304,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>132921011202</v>
+        <v>134632913266</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -8320,15 +8316,19 @@
           <t>Cooper</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)6020 264200</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>phillip_cooper2140654386+101@jiman.org</t>
+          <t>phillip_cooper2140654386+103@jiman.org</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Chart   Pass, 2430</t>
+          <t>Chart   Grove, 4115</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8339,7 +8339,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>132911703318</v>
+        <v>134628635934</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -8358,12 +8358,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>phillip_cooper2140654386+103@jiman.org</t>
+          <t>phillip_cooper2140654386+104@jiman.org</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Chart   Grove, 4115</t>
+          <t>Argyle  Lane, 9868</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8374,7 +8374,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>132922397575</v>
+        <v>134629227877</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>132914893703</v>
+        <v>134654869508</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>132912771205</v>
+        <v>134658299271</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -8454,17 +8454,17 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)6111 836663</t>
+          <t xml:space="preserve"> +(44)3770 460268</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>ramon_west1359851100@naiker.biz</t>
+          <t>ramon_west1007161184@naiker.biz</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Chicksand  Boulevard, 896</t>
+          <t>Camden  Tunnel, 4925</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8475,7 +8475,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>132924337799</v>
+        <v>134658262377</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -8489,17 +8489,17 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1512 103848</t>
+          <t xml:space="preserve"> +(44)6111 836663</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>ramon_west2034201318@naiker.biz</t>
+          <t>ramon_west1359851100@naiker.biz</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Canal  Hill, 7226</t>
+          <t>Chicksand  Boulevard, 896</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8510,7 +8510,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>132922687921</v>
+        <v>134625996953</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -8524,17 +8524,17 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)3770 460268</t>
+          <t xml:space="preserve"> +(44)1512 103848</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>ramon_west1007161184@naiker.biz</t>
+          <t>ramon_west2034201318@naiker.biz</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Camden  Tunnel, 4925</t>
+          <t>Canal  Hill, 7226</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8545,7 +8545,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>132911040931</v>
+        <v>134633702713</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>132923723026</v>
+        <v>134632497520</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>132914893711</v>
+        <v>134659072276</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -8627,19 +8627,15 @@
           <t>Martin</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)6084 412351</t>
-        </is>
-      </c>
+      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>rocco_martin507925367@eirey.tech</t>
+          <t>rocco_martin507925367+101@eirey.tech</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Wager   Street, 6624</t>
+          <t>Clerkenwell Street, 1076</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8650,7 +8646,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>132911237743</v>
+        <v>134658223891</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -8662,15 +8658,19 @@
           <t>Martin</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)6084 412351</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>rocco_martin507925367+101@eirey.tech</t>
+          <t>rocco_martin507925367+102@eirey.tech</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Clerkenwell Street, 1076</t>
+          <t>Buttonwood Rue, 7364</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8681,7 +8681,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>132912723045</v>
+        <v>134627351992</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -8700,12 +8700,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>rocco_martin507925367+102@eirey.tech</t>
+          <t>rocco_martin507925367@eirey.tech</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Buttonwood Rue, 7364</t>
+          <t>Wager   Street, 6624</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -8716,7 +8716,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>132920811942</v>
+        <v>134654791805</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>132916593529</v>
+        <v>134632913267</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>132916788041</v>
+        <v>134660791071</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>132916656024</v>
+        <v>134626306063</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -8833,15 +8833,19 @@
           <t>Jones</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(353)8377 344307</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>roger_jones1323472465@gompie.com</t>
+          <t>roger_jones1323472465+102@gompie.com</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Longleigh   Walk, 7937</t>
+          <t>Bendall   Boulevard, 2683</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -8852,7 +8856,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>132924732750</v>
+        <v>134631721728</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -8864,19 +8868,15 @@
           <t>Jones</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(353)8377 344307</t>
-        </is>
-      </c>
+      <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>roger_jones1323472465+102@gompie.com</t>
+          <t>roger_jones1323472465@gompie.com</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Bendall   Boulevard, 2683</t>
+          <t>Longleigh   Walk, 7937</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -8887,7 +8887,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>132923444124</v>
+        <v>134627262999</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -8901,17 +8901,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)1471 723675</t>
+          <t xml:space="preserve"> +(44)2037 337365</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>ron_coll382126604@sveldo.biz</t>
+          <t>ron_coll328863662@sveldo.biz</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Angela   Rue, 2401</t>
+          <t>Camera  Grove, 9725</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -8922,7 +8922,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>132923444131</v>
+        <v>134659029326</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -8936,17 +8936,17 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)2037 337365</t>
+          <t xml:space="preserve"> +(44)1471 723675</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>ron_coll328863662@sveldo.biz</t>
+          <t>ron_coll382126604@sveldo.biz</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Camera  Grove, 9725</t>
+          <t>Angela   Rue, 2401</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -8957,7 +8957,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>132914154502</v>
+        <v>134659261958</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>132916015775</v>
+        <v>134657625693</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>132924409158</v>
+        <v>134657625722</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -9041,17 +9041,17 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)5268 742752</t>
+          <t xml:space="preserve"> +(353)8454 424540</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>ruby_terry1036595481@ubusive.com</t>
+          <t>ruby_terry1960933772@ubusive.com</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Apostle  Hill, 6891</t>
+          <t>Clarks  Hill, 6879</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -9062,7 +9062,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>132916927307</v>
+        <v>134660566565</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -9076,17 +9076,17 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)8454 424540</t>
+          <t xml:space="preserve"> +(44)5268 742752</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>ruby_terry1960933772@ubusive.com</t>
+          <t>ruby_terry1036595481@ubusive.com</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Clarks  Hill, 6879</t>
+          <t>Apostle  Hill, 6891</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -9097,7 +9097,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>132910294886</v>
+        <v>134634171809</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -9109,15 +9109,19 @@
           <t>Upsdell</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> +(44)3084 734307</t>
+        </is>
+      </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>ryan_upsdell175534425+104@vetan.org</t>
+          <t>ryan_upsdell175534425@vetan.org</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Fawn Grove, 8487</t>
+          <t>Bury  Rue, 5932</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9128,7 +9132,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>132922326681</v>
+        <v>134629227873</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -9143,12 +9147,12 @@
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>ryan_upsdell175534425+101@vetan.org</t>
+          <t>ryan_upsdell175534425+104@vetan.org</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Hampden  Vale, 7627</t>
+          <t>Fawn Grove, 8487</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -9159,7 +9163,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>132914194701</v>
+        <v>134629227871</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -9171,19 +9175,15 @@
           <t>Upsdell</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> +(44)3084 734307</t>
-        </is>
-      </c>
+      <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>ryan_upsdell175534425@vetan.org</t>
+          <t>ryan_upsdell175534425+101@vetan.org</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Bury  Rue, 5932</t>
+          <t>Hampden  Vale, 7627</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -9194,7 +9194,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>132919827222</v>
+        <v>134625997060</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -9213,12 +9213,12 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ryan_welsch107397896+104@famism.biz</t>
+          <t>ryan_welsch107397896+103@famism.biz</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Collingwood  Road, 454</t>
+          <t>Thorndike   Walk, 1902</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -9229,7 +9229,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>132912623361</v>
+        <v>134631191657</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -9248,12 +9248,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>ryan_welsch107397896+103@famism.biz</t>
+          <t>ryan_welsch107397896+104@famism.biz</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Thorndike   Walk, 1902</t>
+          <t>Collingwood  Road, 454</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9264,7 +9264,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>132911041031</v>
+        <v>134632684966</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>132912871477</v>
+        <v>134626108970</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -9314,12 +9314,12 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>sebastian_hope1518365261+103@hourpy.biz</t>
+          <t>sebastian_hope1518365261+101@hourpy.biz</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Ayres   Rue, 5830</t>
+          <t>Cheney  Street, 9579</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9330,7 +9330,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>132916788037</v>
+        <v>134625996980</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -9345,12 +9345,12 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>sebastian_hope1518365261+101@hourpy.biz</t>
+          <t>sebastian_hope1518365261+103@hourpy.biz</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Cheney  Street, 9579</t>
+          <t>Ayres   Rue, 5830</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9361,7 +9361,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>132912049768</v>
+        <v>134626150774</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -9375,17 +9375,17 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4661 404051</t>
+          <t xml:space="preserve"> +(44)8188 876802</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>sebastian_murphy1265006581@womeona.net</t>
+          <t>sebastian_murphy1243079762@womeona.net</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Clyde Vale, 2333</t>
+          <t>Clavell   Vale, 368</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9396,7 +9396,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>132912405811</v>
+        <v>134626150750</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -9410,17 +9410,17 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)8188 876802</t>
+          <t xml:space="preserve"> +(44)4661 404051</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>sebastian_murphy1243079762@womeona.net</t>
+          <t>sebastian_murphy1265006581@womeona.net</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Clavell   Vale, 368</t>
+          <t>Clyde Vale, 2333</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -9431,7 +9431,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>132914154500</v>
+        <v>134630045254</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -9450,12 +9450,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>sebastian_parker1458479109+104@joiniaa.com</t>
+          <t>sebastian_parker1458479109@joiniaa.com</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Dutton   Boulevard, 4639</t>
+          <t>Bales  Grove, 8324</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9466,7 +9466,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>132916656022</v>
+        <v>134660841279</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>132911795531</v>
+        <v>134626787677</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -9520,12 +9520,12 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>sebastian_parker1458479109@joiniaa.com</t>
+          <t>sebastian_parker1458479109+104@joiniaa.com</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Bales  Grove, 8324</t>
+          <t>Dutton   Boulevard, 4639</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -9536,7 +9536,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>132923647386</v>
+        <v>134631345476</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -9550,17 +9550,17 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(353)5324 038485</t>
+          <t xml:space="preserve"> +(44)6161 776432</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>tom_harvey884161528@elnee.tech</t>
+          <t>tom_harvey658471177@elnee.tech</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Norfolk  Way, 3805</t>
+          <t>Cephas  Crossroad, 4318</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9571,7 +9571,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>132924732732</v>
+        <v>134626385181</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -9585,17 +9585,17 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)6161 776432</t>
+          <t xml:space="preserve"> +(353)5324 038485</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>tom_harvey658471177@elnee.tech</t>
+          <t>tom_harvey884161528@elnee.tech</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Cephas  Crossroad, 4318</t>
+          <t>Norfolk  Way, 3805</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9606,7 +9606,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>132910294881</v>
+        <v>134660601893</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>132923723030</v>
+        <v>134630293353</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>132910823967</v>
+        <v>134660841264</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>132924273993</v>
+        <v>134627981967</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>132915056244</v>
+        <v>134628256042</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -9760,17 +9760,17 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4065 762377</t>
+          <t xml:space="preserve"> +(44)4004 423487</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>tyson_wise742214928@sveldo.biz</t>
+          <t>tyson_wise1873100930@sveldo.biz</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Cedarne  Tunnel, 623</t>
+          <t>York Rue, 8512</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -9781,7 +9781,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>132910695070</v>
+        <v>134658954886</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -9795,17 +9795,17 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> +(44)4004 423487</t>
+          <t xml:space="preserve"> +(44)4065 762377</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>tyson_wise1873100930@sveldo.biz</t>
+          <t>tyson_wise742214928@sveldo.biz</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>York Rue, 8512</t>
+          <t>Cedarne  Tunnel, 623</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
